--- a/Code/Results/Cases/Case_5_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.691648652612713</v>
+        <v>1.762949106460781</v>
       </c>
       <c r="C2">
-        <v>0.7261573442878273</v>
+        <v>0.36870491332607</v>
       </c>
       <c r="D2">
-        <v>0.05103117970870841</v>
+        <v>0.03610398936410419</v>
       </c>
       <c r="E2">
-        <v>0.2230275638279267</v>
+        <v>0.2465609138999625</v>
       </c>
       <c r="F2">
-        <v>2.493224159326985</v>
+        <v>2.100166491636472</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,39 +442,45 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.441828881008803</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5586757572446928</v>
+        <v>0.4706191607219097</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8801810956817064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.8146273416052026</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.68851879005625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.457086242335095</v>
+        <v>1.519954472716734</v>
       </c>
       <c r="C3">
-        <v>0.6240716233280068</v>
+        <v>0.3206680876225221</v>
       </c>
       <c r="D3">
-        <v>0.04980555807347642</v>
+        <v>0.0363438422137925</v>
       </c>
       <c r="E3">
-        <v>0.1932788588491832</v>
+        <v>0.2139654229865542</v>
       </c>
       <c r="F3">
-        <v>2.221251142462123</v>
+        <v>1.877998032846804</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,39 +489,45 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.307942919145646</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4808705851951771</v>
+        <v>0.4059455921690827</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.75708932403505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.7012373383370303</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.517124239676392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.31513839269445</v>
+        <v>1.372725001990233</v>
       </c>
       <c r="C4">
-        <v>0.5624989651939529</v>
+        <v>0.2914857563191333</v>
       </c>
       <c r="D4">
-        <v>0.04912265397891957</v>
+        <v>0.03653086009982687</v>
       </c>
       <c r="E4">
-        <v>0.1754979032051907</v>
+        <v>0.194464315413164</v>
       </c>
       <c r="F4">
-        <v>2.059015168099549</v>
+        <v>1.745513853710534</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,39 +536,45 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.228410127095856</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4338355549668762</v>
+        <v>0.3667328193125456</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6829730823799451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6328314501870622</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.415091462100349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.257732216124708</v>
+        <v>1.313146030072915</v>
       </c>
       <c r="C5">
-        <v>0.5376427537339339</v>
+        <v>0.2796562286567053</v>
       </c>
       <c r="D5">
-        <v>0.04885994407862171</v>
+        <v>0.03661606632085679</v>
       </c>
       <c r="E5">
-        <v>0.1683576100409852</v>
+        <v>0.1866296241831122</v>
       </c>
       <c r="F5">
-        <v>1.993960352420871</v>
+        <v>1.692405292974101</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,39 +583,45 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.196598032188959</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4148246006662575</v>
+        <v>0.3508575422019717</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6530843142407576</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.6052168848469037</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.374230819093953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.248224181037244</v>
+        <v>1.303276115332352</v>
       </c>
       <c r="C6">
-        <v>0.5335284034761116</v>
+        <v>0.2776952776836907</v>
       </c>
       <c r="D6">
-        <v>0.0488172093174839</v>
+        <v>0.03663073065864353</v>
       </c>
       <c r="E6">
-        <v>0.1671778985781458</v>
+        <v>0.1853349927892012</v>
       </c>
       <c r="F6">
-        <v>1.983218111386591</v>
+        <v>1.683636806323506</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,39 +630,45 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.19134973859758</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4116764747955699</v>
+        <v>0.3482271882376367</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6481388109090602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.6006460697664338</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.367486925065734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.314362520638355</v>
+        <v>1.37191990297228</v>
       </c>
       <c r="C7">
-        <v>0.5621628481890468</v>
+        <v>0.2913259862585988</v>
       </c>
       <c r="D7">
-        <v>0.04911905031810448</v>
+        <v>0.03653197404984709</v>
       </c>
       <c r="E7">
-        <v>0.1754011996584524</v>
+        <v>0.1943582209171382</v>
       </c>
       <c r="F7">
-        <v>2.058133707838934</v>
+        <v>1.744794187006278</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,39 +677,45 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.227978769474717</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4335785708966924</v>
+        <v>0.366518323799383</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6825687870394361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.6324580280140637</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.414537601849602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.610288579018771</v>
+        <v>1.678706982676289</v>
       </c>
       <c r="C8">
-        <v>0.690700583914662</v>
+        <v>0.3520668123776431</v>
       </c>
       <c r="D8">
-        <v>0.05059290979610864</v>
+        <v>0.03617780698353457</v>
       </c>
       <c r="E8">
-        <v>0.212659238594938</v>
+        <v>0.235205021845232</v>
       </c>
       <c r="F8">
-        <v>2.398373338103283</v>
+        <v>2.022679638390201</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,39 +724,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.395063307671535</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5316769146768507</v>
+        <v>0.4482034676676676</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.837401602065917</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.7752500827105919</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.628702099951823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.211263850265311</v>
+        <v>2.29983550237489</v>
       </c>
       <c r="C9">
-        <v>0.9537700071551569</v>
+        <v>0.4744722225512703</v>
       </c>
       <c r="D9">
-        <v>0.05413402026625391</v>
+        <v>0.03584964421476755</v>
       </c>
       <c r="E9">
-        <v>0.290399797411304</v>
+        <v>0.3202180039532294</v>
       </c>
       <c r="F9">
-        <v>3.110302214819939</v>
+        <v>2.604181076895685</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,39 +771,45 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.747665956718379</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7313866606890826</v>
+        <v>0.6133776727036562</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.155353723200044</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.067151651270372</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.078464219505804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.672083235510627</v>
+        <v>2.774196965363103</v>
       </c>
       <c r="C10">
-        <v>1.157283463403701</v>
+        <v>0.5677000542846429</v>
       </c>
       <c r="D10">
-        <v>0.05729029016013243</v>
+        <v>0.03591368779488135</v>
       </c>
       <c r="E10">
-        <v>0.3516937278791019</v>
+        <v>0.3870079444991177</v>
       </c>
       <c r="F10">
-        <v>3.671653194393173</v>
+        <v>3.062158013890155</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,39 +818,45 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.027834327529291</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.88495165816785</v>
+        <v>0.739422068912333</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.402019541355131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.292390207826585</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.433895322820604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.88767004750332</v>
+        <v>2.995496143851881</v>
       </c>
       <c r="C11">
-        <v>1.253023564308762</v>
+        <v>0.611165433531454</v>
       </c>
       <c r="D11">
-        <v>0.058889010592587</v>
+        <v>0.03603108326337789</v>
       </c>
       <c r="E11">
-        <v>0.380838151319729</v>
+        <v>0.4186832733245183</v>
       </c>
       <c r="F11">
-        <v>3.938237645540084</v>
+        <v>3.279366016714931</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,39 +865,45 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.161421691055651</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9569210746492871</v>
+        <v>0.7982103112066667</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.518218671211784</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.398119176141833</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.602784843826186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.970336571120356</v>
+        <v>3.080241975210413</v>
       </c>
       <c r="C12">
-        <v>1.28982450927208</v>
+        <v>0.6278093571879992</v>
       </c>
       <c r="D12">
-        <v>0.05952209052629343</v>
+        <v>0.03609043948829793</v>
       </c>
       <c r="E12">
-        <v>0.3920908283358031</v>
+        <v>0.4308980162421108</v>
       </c>
       <c r="F12">
-        <v>4.04108385966984</v>
+        <v>3.363103995283467</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,39 +912,45 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.213041926644919</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9845390151054829</v>
+        <v>0.8207218984796611</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.562907134675868</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.438715383769022</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.667945585367661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.952484098908599</v>
+        <v>3.061945778165921</v>
       </c>
       <c r="C13">
-        <v>1.281872858123393</v>
+        <v>0.624216010812745</v>
       </c>
       <c r="D13">
-        <v>0.05938443900419799</v>
+        <v>0.0360769542313264</v>
       </c>
       <c r="E13">
-        <v>0.3896571260485473</v>
+        <v>0.4282569706976673</v>
       </c>
       <c r="F13">
-        <v>4.018844785028108</v>
+        <v>3.344999773489945</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,39 +959,45 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.201875966898442</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9785737062864968</v>
+        <v>0.8158617983485001</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.553250164434758</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.429945847222939</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.653855454285903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.894449383301776</v>
+        <v>3.002448354641103</v>
       </c>
       <c r="C14">
-        <v>1.256039676203841</v>
+        <v>0.6125308363988324</v>
       </c>
       <c r="D14">
-        <v>0.0589405128306737</v>
+        <v>0.03603565394295671</v>
       </c>
       <c r="E14">
-        <v>0.3817593606043133</v>
+        <v>0.4196835651266468</v>
       </c>
       <c r="F14">
-        <v>3.946659087681866</v>
+        <v>3.286224101324365</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,39 +1006,45 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.165646858220612</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9591855277813579</v>
+        <v>0.8000570906787843</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.521880754036985</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.401447292129518</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.608120429061444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.859040921233145</v>
+        <v>2.96613236358138</v>
       </c>
       <c r="C15">
-        <v>1.240290208537317</v>
+        <v>0.60539841320508</v>
       </c>
       <c r="D15">
-        <v>0.05867233814934991</v>
+        <v>0.03601236862482082</v>
       </c>
       <c r="E15">
-        <v>0.3769510529639035</v>
+        <v>0.4144618543657401</v>
       </c>
       <c r="F15">
-        <v>3.902699345156492</v>
+        <v>3.250422558408928</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,39 +1053,45 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.14359495446854</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9473591696591228</v>
+        <v>0.7904100987357054</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.50275911223774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.384066758660893</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.580268908075126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.658128124758662</v>
+        <v>2.759857970102189</v>
       </c>
       <c r="C16">
-        <v>1.151097752499652</v>
+        <v>0.5648834235680624</v>
       </c>
       <c r="D16">
-        <v>0.05718943614384386</v>
+        <v>0.03590797261463408</v>
       </c>
       <c r="E16">
-        <v>0.3498173175363064</v>
+        <v>0.384966699438607</v>
       </c>
       <c r="F16">
-        <v>3.654480335858835</v>
+        <v>3.048158821746171</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,39 +1100,45 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.019239993789711</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8802957932194886</v>
+        <v>0.7356126950249333</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.394515181510926</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.285553648706653</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.4230169582694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.536514990348849</v>
+        <v>2.634828548972962</v>
       </c>
       <c r="C17">
-        <v>1.097251627272954</v>
+        <v>0.54032101074759</v>
       </c>
       <c r="D17">
-        <v>0.05632426424016757</v>
+        <v>0.03586799833091092</v>
       </c>
       <c r="E17">
-        <v>0.333517927485893</v>
+        <v>0.3672261487852495</v>
       </c>
       <c r="F17">
-        <v>3.505268945802726</v>
+        <v>2.926489831870526</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,39 +1147,45 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.944624912952762</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8397361100200911</v>
+        <v>0.702395257222328</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.329207804525296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.226015375667373</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.328506730610911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.467115445895615</v>
+        <v>2.563423288195338</v>
       </c>
       <c r="C18">
-        <v>1.066572025824883</v>
+        <v>0.5262905015895853</v>
       </c>
       <c r="D18">
-        <v>0.05584168306218373</v>
+        <v>0.03585316238692116</v>
       </c>
       <c r="E18">
-        <v>0.324259304877117</v>
+        <v>0.3571415730511802</v>
       </c>
       <c r="F18">
-        <v>3.420483715539945</v>
+        <v>2.857329992667303</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,39 +1194,45 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.902275734447429</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8166018936434725</v>
+        <v>0.6834231690888473</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.292012579904792</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.192072003663831</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.274813395969588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.443707434368037</v>
+        <v>2.539329692019635</v>
       </c>
       <c r="C19">
-        <v>1.056231892065</v>
+        <v>0.5215557731375497</v>
       </c>
       <c r="D19">
-        <v>0.05568075445827247</v>
+        <v>0.03584947836066732</v>
       </c>
       <c r="E19">
-        <v>0.3211435013533119</v>
+        <v>0.3537466399348048</v>
       </c>
       <c r="F19">
-        <v>3.391947082720407</v>
+        <v>2.834048701865299</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,39 +1241,45 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.888030237259741</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8088007616852906</v>
+        <v>0.677021343228887</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.279478933941292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.180628620581707</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.256743396542177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.549402921002354</v>
+        <v>2.648084493231067</v>
       </c>
       <c r="C20">
-        <v>1.102952873961328</v>
+        <v>0.5429254453861461</v>
       </c>
       <c r="D20">
-        <v>0.0564147777837718</v>
+        <v>0.03587139464377032</v>
       </c>
       <c r="E20">
-        <v>0.3352407473481236</v>
+        <v>0.3691020796749598</v>
       </c>
       <c r="F20">
-        <v>3.521043488635712</v>
+        <v>2.939355305095432</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.95250806298354</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8440331999273809</v>
+        <v>0.7059171914889362</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.336121052981738</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.232321519223404</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.338497369933521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.91146617520775</v>
+        <v>3.019897233989866</v>
       </c>
       <c r="C21">
-        <v>1.26361188082808</v>
+        <v>0.6159577627089163</v>
       </c>
       <c r="D21">
-        <v>0.05907011607244073</v>
+        <v>0.03604736101034334</v>
       </c>
       <c r="E21">
-        <v>0.3840729489421548</v>
+        <v>0.4221955145544243</v>
       </c>
       <c r="F21">
-        <v>3.967807844382122</v>
+        <v>3.303445791684368</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,39 +1335,45 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.176258857842001</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9648698758735179</v>
+        <v>0.8046921806524381</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.531075097006678</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.409802064735686</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.621519711541879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.154189645846373</v>
+        <v>3.268491036389207</v>
       </c>
       <c r="C22">
-        <v>1.37184920430866</v>
+        <v>0.6647829730590615</v>
       </c>
       <c r="D22">
-        <v>0.06096938552832398</v>
+        <v>0.03625052218016123</v>
       </c>
       <c r="E22">
-        <v>0.4172689304316535</v>
+        <v>0.4581970471652497</v>
       </c>
       <c r="F22">
-        <v>4.27101153073977</v>
+        <v>3.550181011303238</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,39 +1382,45 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.32860479745942</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.046004675345202</v>
+        <v>0.8707266222325316</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.662555178048621</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.529104856529258</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.813617130069474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.024022143022762</v>
+        <v>3.135244084992962</v>
       </c>
       <c r="C23">
-        <v>1.313750504643792</v>
+        <v>0.6386117987412092</v>
       </c>
       <c r="D23">
-        <v>0.05993911862429968</v>
+        <v>0.03613319624831846</v>
       </c>
       <c r="E23">
-        <v>0.3994213170906633</v>
+        <v>0.438850576469882</v>
       </c>
       <c r="F23">
-        <v>4.108054784621288</v>
+        <v>3.417613057173497</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,39 +1429,45 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.246679637706734</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.002481090388301</v>
+        <v>0.8353322547835305</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.591967727492104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.465095017597349</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.710376484199031</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.543574688392368</v>
+        <v>2.642090009998185</v>
       </c>
       <c r="C24">
-        <v>1.100374483489048</v>
+        <v>0.5417477002332305</v>
       </c>
       <c r="D24">
-        <v>0.05637381076900283</v>
+        <v>0.03586983396098375</v>
       </c>
       <c r="E24">
-        <v>0.3344615138403029</v>
+        <v>0.3682536165590236</v>
       </c>
       <c r="F24">
-        <v>3.513908728872764</v>
+        <v>2.933536381723343</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,39 +1476,45 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.948942394997971</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8420899166776792</v>
+        <v>0.7043245385159977</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.332994488791442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.229469627545214</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.333978615228801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.045832699559668</v>
+        <v>2.12912564736439</v>
       </c>
       <c r="C25">
-        <v>0.881087974927425</v>
+        <v>0.4408823199397318</v>
       </c>
       <c r="D25">
-        <v>0.0530914090465302</v>
+        <v>0.03589144951506285</v>
       </c>
       <c r="E25">
-        <v>0.2687418601864309</v>
+        <v>0.2965658865982164</v>
       </c>
       <c r="F25">
-        <v>2.91186235360189</v>
+        <v>2.442140355947259</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,19 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.649041264532784</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6763483189650827</v>
+        <v>0.5680010500125192</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.06739216212565</v>
+        <v>0.9865731042738801</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.952945078430986</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.762949106460781</v>
+        <v>0.9953721218207932</v>
       </c>
       <c r="C2">
-        <v>0.36870491332607</v>
+        <v>0.1373896819638958</v>
       </c>
       <c r="D2">
-        <v>0.03610398936410419</v>
+        <v>0.110270832916143</v>
       </c>
       <c r="E2">
-        <v>0.2465609138999625</v>
+        <v>0.03943840680653743</v>
       </c>
       <c r="F2">
-        <v>2.100166491636472</v>
+        <v>2.672455984771148</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.972431830988555</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4706191607219097</v>
+        <v>1.034682556596067</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.283186989910547</v>
       </c>
       <c r="M2">
-        <v>0.8146273416052026</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.68851879005625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.519954472716734</v>
+        <v>0.8652978625926835</v>
       </c>
       <c r="C3">
-        <v>0.3206680876225221</v>
+        <v>0.1186730373220684</v>
       </c>
       <c r="D3">
-        <v>0.0363438422137925</v>
+        <v>0.1098907612132329</v>
       </c>
       <c r="E3">
-        <v>0.2139654229865542</v>
+        <v>0.03649973709185517</v>
       </c>
       <c r="F3">
-        <v>1.877998032846804</v>
+        <v>2.463072915715912</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.844813092031103</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4059455921690827</v>
+        <v>0.8951025098830883</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2506323633887462</v>
       </c>
       <c r="M3">
-        <v>0.7012373383370303</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.517124239676392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.372725001990233</v>
+        <v>0.786801798707728</v>
       </c>
       <c r="C4">
-        <v>0.2914857563191333</v>
+        <v>0.1073259060490415</v>
       </c>
       <c r="D4">
-        <v>0.03653086009982687</v>
+        <v>0.109661784346855</v>
       </c>
       <c r="E4">
-        <v>0.194464315413164</v>
+        <v>0.03474704728522227</v>
       </c>
       <c r="F4">
-        <v>1.745513853710534</v>
+        <v>2.337657825617427</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.768532288197747</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3667328193125456</v>
+        <v>0.8107649303888707</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2310512718310207</v>
       </c>
       <c r="M4">
-        <v>0.6328314501870622</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.415091462100349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.313146030072915</v>
+        <v>0.7551205542820583</v>
       </c>
       <c r="C5">
-        <v>0.2796562286567053</v>
+        <v>0.102732149849075</v>
       </c>
       <c r="D5">
-        <v>0.03661606632085679</v>
+        <v>0.1095692770163659</v>
       </c>
       <c r="E5">
-        <v>0.1866296241831122</v>
+        <v>0.03404487004880252</v>
       </c>
       <c r="F5">
-        <v>1.692405292974101</v>
+        <v>2.28726944626645</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.737924179225118</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3508575422019717</v>
+        <v>0.7766982234458908</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.223164088328403</v>
       </c>
       <c r="M5">
-        <v>0.6052168848469037</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.374230819093953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.303276115332352</v>
+        <v>0.749877364037161</v>
       </c>
       <c r="C6">
-        <v>0.2776952776836907</v>
+        <v>0.1019710183591656</v>
       </c>
       <c r="D6">
-        <v>0.03663073065864353</v>
+        <v>0.1095539563252323</v>
       </c>
       <c r="E6">
-        <v>0.1853349927892012</v>
+        <v>0.03392897624755875</v>
       </c>
       <c r="F6">
-        <v>1.683636806323506</v>
+        <v>2.278943925900563</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.732869261137566</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3482271882376367</v>
+        <v>0.7710585227364106</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2218597153144373</v>
       </c>
       <c r="M6">
-        <v>0.6006460697664338</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.367486925065734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.37191990297228</v>
+        <v>0.7863733413873319</v>
       </c>
       <c r="C7">
-        <v>0.2913259862585988</v>
+        <v>0.1072638382015754</v>
       </c>
       <c r="D7">
-        <v>0.03653197404984709</v>
+        <v>0.1096605338932193</v>
       </c>
       <c r="E7">
-        <v>0.1943582209171382</v>
+        <v>0.03473752984216283</v>
       </c>
       <c r="F7">
-        <v>1.744794187006278</v>
+        <v>2.336975449523209</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.768117623283516</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.366518323799383</v>
+        <v>0.8103043268791907</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2309445418993477</v>
       </c>
       <c r="M7">
-        <v>0.6324580280140637</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.414537601849602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.678706982676289</v>
+        <v>0.950214389177944</v>
       </c>
       <c r="C8">
-        <v>0.3520668123776431</v>
+        <v>0.1309022341942665</v>
       </c>
       <c r="D8">
-        <v>0.03617780698353457</v>
+        <v>0.110138685214082</v>
       </c>
       <c r="E8">
-        <v>0.235205021845232</v>
+        <v>0.03841384723805241</v>
       </c>
       <c r="F8">
-        <v>2.022679638390201</v>
+        <v>2.599562534824955</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.927969258910991</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4482034676676676</v>
+        <v>0.986245891817191</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2718711708796491</v>
       </c>
       <c r="M8">
-        <v>0.7752500827105919</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.628702099951823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.29983550237489</v>
+        <v>1.284257165963822</v>
       </c>
       <c r="C9">
-        <v>0.4744722225512703</v>
+        <v>0.1787130324921549</v>
       </c>
       <c r="D9">
-        <v>0.03584964421476755</v>
+        <v>0.1111259660432324</v>
       </c>
       <c r="E9">
-        <v>0.3202180039532294</v>
+        <v>0.04607900850664493</v>
       </c>
       <c r="F9">
-        <v>2.604181076895685</v>
+        <v>3.143014371098161</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.260162891104628</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6133776727036562</v>
+        <v>1.344165502438642</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.355866655776822</v>
       </c>
       <c r="M9">
-        <v>1.067151651270372</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.078464219505804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.774196965363103</v>
+        <v>1.540348511336447</v>
       </c>
       <c r="C10">
-        <v>0.5677000542846429</v>
+        <v>0.2152000681279702</v>
       </c>
       <c r="D10">
-        <v>0.03591368779488135</v>
+        <v>0.1119043272925566</v>
       </c>
       <c r="E10">
-        <v>0.3870079444991177</v>
+        <v>0.05205892635342124</v>
       </c>
       <c r="F10">
-        <v>3.062158013890155</v>
+        <v>3.565117904569718</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.519073611366011</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.739422068912333</v>
+        <v>1.618179108173308</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4206322322934</v>
       </c>
       <c r="M10">
-        <v>1.292390207826585</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.433895322820604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.995496143851881</v>
+        <v>1.659895711571579</v>
       </c>
       <c r="C11">
-        <v>0.611165433531454</v>
+        <v>0.2322140500843801</v>
       </c>
       <c r="D11">
-        <v>0.03603108326337789</v>
+        <v>0.1122756918718011</v>
       </c>
       <c r="E11">
-        <v>0.4186832733245183</v>
+        <v>0.05487250897701301</v>
       </c>
       <c r="F11">
-        <v>3.279366016714931</v>
+        <v>3.763462163184698</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.640940796275899</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7982103112066667</v>
+        <v>1.746036091220049</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.450953001041313</v>
       </c>
       <c r="M11">
-        <v>1.398119176141833</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.602784843826186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.080241975210413</v>
+        <v>1.705671810514474</v>
       </c>
       <c r="C12">
-        <v>0.6278093571879992</v>
+        <v>0.2387278985635533</v>
       </c>
       <c r="D12">
-        <v>0.03609043948829793</v>
+        <v>0.1124193511542941</v>
       </c>
       <c r="E12">
-        <v>0.4308980162421108</v>
+        <v>0.05595298190267783</v>
       </c>
       <c r="F12">
-        <v>3.363103995283467</v>
+        <v>3.839606929892284</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.687756573015022</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8207218984796611</v>
+        <v>1.794988501950883</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4625762743471284</v>
       </c>
       <c r="M12">
-        <v>1.438715383769022</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.667945585367661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.061945778165921</v>
+        <v>1.695789438806599</v>
       </c>
       <c r="C13">
-        <v>0.624216010812745</v>
+        <v>0.2373216729884859</v>
       </c>
       <c r="D13">
-        <v>0.0360769542313264</v>
+        <v>0.1123882673196235</v>
       </c>
       <c r="E13">
-        <v>0.4282569706976673</v>
+        <v>0.0557195866873208</v>
       </c>
       <c r="F13">
-        <v>3.344999773489945</v>
+        <v>3.823159551844128</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.677642918349846</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8158617983485001</v>
+        <v>1.784420617948342</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4600663953443842</v>
       </c>
       <c r="M13">
-        <v>1.429945847222939</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.653855454285903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.002448354641103</v>
+        <v>1.663651180222189</v>
       </c>
       <c r="C14">
-        <v>0.6125308363988324</v>
+        <v>0.2327484558931445</v>
       </c>
       <c r="D14">
-        <v>0.03603565394295671</v>
+        <v>0.1122874466863877</v>
       </c>
       <c r="E14">
-        <v>0.4196835651266468</v>
+        <v>0.05496108904236507</v>
       </c>
       <c r="F14">
-        <v>3.286224101324365</v>
+        <v>3.769705101412342</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.644778497631407</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8000570906787843</v>
+        <v>1.750052240826932</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4519063096051639</v>
       </c>
       <c r="M14">
-        <v>1.401447292129518</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.608120429061444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.96613236358138</v>
+        <v>1.644033621785951</v>
       </c>
       <c r="C15">
-        <v>0.60539841320508</v>
+        <v>0.2299568333019977</v>
       </c>
       <c r="D15">
-        <v>0.03601236862482082</v>
+        <v>0.1122261032692435</v>
       </c>
       <c r="E15">
-        <v>0.4144618543657401</v>
+        <v>0.05449849557173536</v>
       </c>
       <c r="F15">
-        <v>3.250422558408928</v>
+        <v>3.737101620328957</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.6247375045442</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7904100987357054</v>
+        <v>1.729072745550411</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4469270109529191</v>
       </c>
       <c r="M15">
-        <v>1.384066758660893</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.580268908075126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.759857970102189</v>
+        <v>1.532602802742787</v>
       </c>
       <c r="C16">
-        <v>0.5648834235680624</v>
+        <v>0.2140974623472118</v>
       </c>
       <c r="D16">
-        <v>0.03590797261463408</v>
+        <v>0.1118804507652875</v>
       </c>
       <c r="E16">
-        <v>0.384966699438607</v>
+        <v>0.05187706360040067</v>
       </c>
       <c r="F16">
-        <v>3.048158821746171</v>
+        <v>3.552293445535071</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.511198160468624</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7356126950249333</v>
+        <v>1.609894072844298</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4186694696619355</v>
       </c>
       <c r="M16">
-        <v>1.285553648706653</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.4230169582694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.634828548972962</v>
+        <v>1.465070564153734</v>
       </c>
       <c r="C17">
-        <v>0.54032101074759</v>
+        <v>0.204482345357647</v>
       </c>
       <c r="D17">
-        <v>0.03586799833091092</v>
+        <v>0.1116731996813201</v>
       </c>
       <c r="E17">
-        <v>0.3672261487852495</v>
+        <v>0.05029389083325242</v>
       </c>
       <c r="F17">
-        <v>2.926489831870526</v>
+        <v>3.440625806118817</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.442646300103846</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.702395257222328</v>
+        <v>1.537653682654621</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4015664883311274</v>
       </c>
       <c r="M17">
-        <v>1.226015375667373</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.328506730610911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.563423288195338</v>
+        <v>1.426510420962785</v>
       </c>
       <c r="C18">
-        <v>0.5262905015895853</v>
+        <v>0.1989903813659737</v>
       </c>
       <c r="D18">
-        <v>0.03585316238692116</v>
+        <v>0.1115555849302403</v>
       </c>
       <c r="E18">
-        <v>0.3571415730511802</v>
+        <v>0.04939196629345943</v>
       </c>
       <c r="F18">
-        <v>2.857329992667303</v>
+        <v>3.376984765339955</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.403596568573064</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6834231690888473</v>
+        <v>1.496399831234982</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3918089336596182</v>
       </c>
       <c r="M18">
-        <v>1.192072003663831</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.274813395969588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.539329692019635</v>
+        <v>1.413501218296233</v>
       </c>
       <c r="C19">
-        <v>0.5215557731375497</v>
+        <v>0.1971371702767897</v>
       </c>
       <c r="D19">
-        <v>0.03584947836066732</v>
+        <v>0.1115160201780014</v>
       </c>
       <c r="E19">
-        <v>0.3537466399348048</v>
+        <v>0.04908803347714752</v>
       </c>
       <c r="F19">
-        <v>2.834048701865299</v>
+        <v>3.355534231294627</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.390437890313891</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.677021343228887</v>
+        <v>1.482480840430668</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3885183524298412</v>
       </c>
       <c r="M19">
-        <v>1.180628620581707</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.256743396542177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.648084493231067</v>
+        <v>1.47222977072866</v>
       </c>
       <c r="C20">
-        <v>0.5429254453861461</v>
+        <v>0.205501839845553</v>
       </c>
       <c r="D20">
-        <v>0.03587139464377032</v>
+        <v>0.1116950935419965</v>
       </c>
       <c r="E20">
-        <v>0.3691020796749598</v>
+        <v>0.05046151332264159</v>
       </c>
       <c r="F20">
-        <v>2.939355305095432</v>
+        <v>3.452451369245352</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.449903938139414</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7059171914889362</v>
+        <v>1.545312552280393</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4033787645420972</v>
       </c>
       <c r="M20">
-        <v>1.232321519223404</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.338497369933521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.019897233989866</v>
+        <v>1.673076652175553</v>
       </c>
       <c r="C21">
-        <v>0.6159577627089163</v>
+        <v>0.2340896970210196</v>
       </c>
       <c r="D21">
-        <v>0.03604736101034334</v>
+        <v>0.1123169731929323</v>
       </c>
       <c r="E21">
-        <v>0.4221955145544243</v>
+        <v>0.05518345654425616</v>
       </c>
       <c r="F21">
-        <v>3.303445791684368</v>
+        <v>3.785376774729883</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.654412786517398</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8046921806524381</v>
+        <v>1.760131889604821</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4542991322528565</v>
       </c>
       <c r="M21">
-        <v>1.409802064735686</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.621519711541879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.268491036389207</v>
+        <v>1.807329064752452</v>
       </c>
       <c r="C22">
-        <v>0.6647829730590615</v>
+        <v>0.2531936906296295</v>
       </c>
       <c r="D22">
-        <v>0.03625052218016123</v>
+        <v>0.112741380932782</v>
       </c>
       <c r="E22">
-        <v>0.4581970471652497</v>
+        <v>0.0583580044145755</v>
       </c>
       <c r="F22">
-        <v>3.550181011303238</v>
+        <v>4.009070890395947</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.792004198394977</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8707266222325316</v>
+        <v>1.90369242665048</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.488412880694213</v>
       </c>
       <c r="M22">
-        <v>1.529104856529258</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.813617130069474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.135244084992962</v>
+        <v>1.735378318043246</v>
       </c>
       <c r="C23">
-        <v>0.6386117987412092</v>
+        <v>0.2429550189551577</v>
       </c>
       <c r="D23">
-        <v>0.03613319624831846</v>
+        <v>0.1125130237325465</v>
       </c>
       <c r="E23">
-        <v>0.438850576469882</v>
+        <v>0.05665501250858895</v>
       </c>
       <c r="F23">
-        <v>3.417613057173497</v>
+        <v>3.889076811984324</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.718180580828502</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8353322547835305</v>
+        <v>1.826755069716057</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4701229124693498</v>
       </c>
       <c r="M23">
-        <v>1.465095017597349</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.710376484199031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.642090009998185</v>
+        <v>1.468992272907883</v>
       </c>
       <c r="C24">
-        <v>0.5417477002332305</v>
+        <v>0.2050408154148755</v>
       </c>
       <c r="D24">
-        <v>0.03586983396098375</v>
+        <v>0.1116851905816389</v>
       </c>
       <c r="E24">
-        <v>0.3682536165590236</v>
+        <v>0.05038570557907462</v>
       </c>
       <c r="F24">
-        <v>2.933536381723343</v>
+        <v>3.447103302943304</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.446621639441886</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7043245385159977</v>
+        <v>1.541849116600901</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4025592016421058</v>
       </c>
       <c r="M24">
-        <v>1.229469627545214</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.333978615228801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.12912564736439</v>
+        <v>1.192242619953134</v>
       </c>
       <c r="C25">
-        <v>0.4408823199397318</v>
+        <v>0.1655771722111297</v>
       </c>
       <c r="D25">
-        <v>0.03589144951506285</v>
+        <v>0.1108513585674515</v>
       </c>
       <c r="E25">
-        <v>0.2965658865982164</v>
+        <v>0.04394969355205802</v>
       </c>
       <c r="F25">
-        <v>2.442140355947259</v>
+        <v>2.992412090599572</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.167956128921617</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5680010500125192</v>
+        <v>1.24564777636536</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3326678645094177</v>
       </c>
       <c r="M25">
-        <v>0.9865731042738801</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.952945078430986</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9953721218207932</v>
+        <v>0.7801687900233389</v>
       </c>
       <c r="C2">
-        <v>0.1373896819638958</v>
+        <v>0.04160859039693321</v>
       </c>
       <c r="D2">
-        <v>0.110270832916143</v>
+        <v>0.143342175087998</v>
       </c>
       <c r="E2">
-        <v>0.03943840680653743</v>
+        <v>0.06113185119995279</v>
       </c>
       <c r="F2">
-        <v>2.672455984771148</v>
+        <v>2.630708748447447</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.972431830988555</v>
+        <v>2.147253301571425</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.034682556596067</v>
+        <v>0.6164355302459512</v>
       </c>
       <c r="L2">
-        <v>0.283186989910547</v>
+        <v>0.2456817495575621</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8652978625926835</v>
+        <v>0.7541894255479917</v>
       </c>
       <c r="C3">
-        <v>0.1186730373220684</v>
+        <v>0.03620255580473497</v>
       </c>
       <c r="D3">
-        <v>0.1098907612132329</v>
+        <v>0.1426570395144076</v>
       </c>
       <c r="E3">
-        <v>0.03649973709185517</v>
+        <v>0.06068365956370769</v>
       </c>
       <c r="F3">
-        <v>2.463072915715912</v>
+        <v>2.577096267988736</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.844813092031103</v>
+        <v>2.114043808880069</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8951025098830883</v>
+        <v>0.5853739611387425</v>
       </c>
       <c r="L3">
-        <v>0.2506323633887462</v>
+        <v>0.238526883288003</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.786801798707728</v>
+        <v>0.7388538796103887</v>
       </c>
       <c r="C4">
-        <v>0.1073259060490415</v>
+        <v>0.03288011789013012</v>
       </c>
       <c r="D4">
-        <v>0.109661784346855</v>
+        <v>0.1422241723569364</v>
       </c>
       <c r="E4">
-        <v>0.03474704728522227</v>
+        <v>0.06043441177349784</v>
       </c>
       <c r="F4">
-        <v>2.337657825617427</v>
+        <v>2.545016477067776</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,16 +536,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.768532288197747</v>
+        <v>2.09420565580325</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8107649303888707</v>
+        <v>0.5667910953254705</v>
       </c>
       <c r="L4">
-        <v>0.2310512718310207</v>
+        <v>0.2342796997543815</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7551205542820583</v>
+        <v>0.7327593670990211</v>
       </c>
       <c r="C5">
-        <v>0.102732149849075</v>
+        <v>0.03152531484467147</v>
       </c>
       <c r="D5">
-        <v>0.1095692770163659</v>
+        <v>0.1420446831958699</v>
       </c>
       <c r="E5">
-        <v>0.03404487004880252</v>
+        <v>0.06033936952587915</v>
       </c>
       <c r="F5">
-        <v>2.28726944626645</v>
+        <v>2.532153828972611</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.737924179225118</v>
+        <v>2.086259911447826</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7766982234458908</v>
+        <v>0.5593412042661896</v>
       </c>
       <c r="L5">
-        <v>0.223164088328403</v>
+        <v>0.2325855804221817</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.749877364037161</v>
+        <v>0.7317567298549648</v>
       </c>
       <c r="C6">
-        <v>0.1019710183591656</v>
+        <v>0.03130029460496075</v>
       </c>
       <c r="D6">
-        <v>0.1095539563252323</v>
+        <v>0.1420146916058158</v>
       </c>
       <c r="E6">
-        <v>0.03392897624755875</v>
+        <v>0.06032398226020952</v>
       </c>
       <c r="F6">
-        <v>2.278943925900563</v>
+        <v>2.530030666377584</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,16 +630,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.732869261137566</v>
+        <v>2.084948875163789</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7710585227364106</v>
+        <v>0.5581115653201039</v>
       </c>
       <c r="L6">
-        <v>0.2218597153144373</v>
+        <v>0.2323064847839476</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7863733413873319</v>
+        <v>0.7387710599403192</v>
       </c>
       <c r="C7">
-        <v>0.1072638382015754</v>
+        <v>0.03286185024772692</v>
       </c>
       <c r="D7">
-        <v>0.1096605338932193</v>
+        <v>0.1422217642595385</v>
       </c>
       <c r="E7">
-        <v>0.03473752984216283</v>
+        <v>0.06043310356150933</v>
       </c>
       <c r="F7">
-        <v>2.336975449523209</v>
+        <v>2.544842157063854</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.768117623283516</v>
+        <v>2.094097936746337</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8103043268791907</v>
+        <v>0.5666901266275488</v>
       </c>
       <c r="L7">
-        <v>0.2309445418993477</v>
+        <v>0.2342567039733723</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.950214389177944</v>
+        <v>0.7710832498189859</v>
       </c>
       <c r="C8">
-        <v>0.1309022341942665</v>
+        <v>0.03974517324338933</v>
       </c>
       <c r="D8">
-        <v>0.110138685214082</v>
+        <v>0.1431084544871055</v>
       </c>
       <c r="E8">
-        <v>0.03841384723805241</v>
+        <v>0.06097193249065036</v>
       </c>
       <c r="F8">
-        <v>2.599562534824955</v>
+        <v>2.612048684312384</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.927969258910991</v>
+        <v>2.135687664364212</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.986245891817191</v>
+        <v>0.6056238609949673</v>
       </c>
       <c r="L8">
-        <v>0.2718711708796491</v>
+        <v>0.2431844276398181</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.284257165963822</v>
+        <v>0.8393404167546521</v>
       </c>
       <c r="C9">
-        <v>0.1787130324921549</v>
+        <v>0.05322382392630232</v>
       </c>
       <c r="D9">
-        <v>0.1111259660432324</v>
+        <v>0.1447517514737484</v>
       </c>
       <c r="E9">
-        <v>0.04607900850664493</v>
+        <v>0.06223435567556734</v>
       </c>
       <c r="F9">
-        <v>3.143014371098161</v>
+        <v>2.750534342411328</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.260162891104628</v>
+        <v>2.221657233728934</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.344165502438642</v>
+        <v>0.6858677430424507</v>
       </c>
       <c r="L9">
-        <v>0.355866655776822</v>
+        <v>0.2618532966541807</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.540348511336447</v>
+        <v>0.8924880890712359</v>
       </c>
       <c r="C10">
-        <v>0.2152000681279702</v>
+        <v>0.06312273449840688</v>
       </c>
       <c r="D10">
-        <v>0.1119043272925566</v>
+        <v>0.1459026043698088</v>
       </c>
       <c r="E10">
-        <v>0.05205892635342124</v>
+        <v>0.0632874026881467</v>
       </c>
       <c r="F10">
-        <v>3.565117904569718</v>
+        <v>2.856429242130105</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.519073611366011</v>
+        <v>2.287554572073958</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.618179108173308</v>
+        <v>0.7472251482336389</v>
       </c>
       <c r="L10">
-        <v>0.4206322322934</v>
+        <v>0.2762844874469295</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.659895711571579</v>
+        <v>0.9173216697800797</v>
       </c>
       <c r="C11">
-        <v>0.2322140500843801</v>
+        <v>0.06762696470234175</v>
       </c>
       <c r="D11">
-        <v>0.1122756918718011</v>
+        <v>0.1464142668620028</v>
       </c>
       <c r="E11">
-        <v>0.05487250897701301</v>
+        <v>0.06379375755389205</v>
       </c>
       <c r="F11">
-        <v>3.763462163184698</v>
+        <v>2.905520194086591</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.640940796275899</v>
+        <v>2.318137281930518</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.746036091220049</v>
+        <v>0.7756664249610026</v>
       </c>
       <c r="L11">
-        <v>0.450953001041313</v>
+        <v>0.2830065516543954</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.705671810514474</v>
+        <v>0.9268200931948911</v>
       </c>
       <c r="C12">
-        <v>0.2387278985635533</v>
+        <v>0.06933289356190642</v>
       </c>
       <c r="D12">
-        <v>0.1124193511542941</v>
+        <v>0.1466063422340866</v>
       </c>
       <c r="E12">
-        <v>0.05595298190267783</v>
+        <v>0.06398942885917691</v>
       </c>
       <c r="F12">
-        <v>3.839606929892284</v>
+        <v>2.924242794660529</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.687756573015022</v>
+        <v>2.329805929395761</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.794988501950883</v>
+        <v>0.7865129249303209</v>
       </c>
       <c r="L12">
-        <v>0.4625762743471284</v>
+        <v>0.2855747316200734</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.695789438806599</v>
+        <v>0.9247702339626755</v>
       </c>
       <c r="C13">
-        <v>0.2373216729884859</v>
+        <v>0.06896547733192904</v>
       </c>
       <c r="D13">
-        <v>0.1123882673196235</v>
+        <v>0.1465650496721409</v>
       </c>
       <c r="E13">
-        <v>0.0557195866873208</v>
+        <v>0.063947112986245</v>
       </c>
       <c r="F13">
-        <v>3.823159551844128</v>
+        <v>2.920204623134623</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.677642918349846</v>
+        <v>2.327288970937929</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.784420617948342</v>
+        <v>0.7841735345879499</v>
       </c>
       <c r="L13">
-        <v>0.4600663953443842</v>
+        <v>0.285020618295718</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.663651180222189</v>
+        <v>0.9181012166126834</v>
       </c>
       <c r="C14">
-        <v>0.2327484558931445</v>
+        <v>0.06776730637633932</v>
       </c>
       <c r="D14">
-        <v>0.1122874466863877</v>
+        <v>0.1464301025413803</v>
       </c>
       <c r="E14">
-        <v>0.05496108904236507</v>
+        <v>0.06380977688741396</v>
       </c>
       <c r="F14">
-        <v>3.769705101412342</v>
+        <v>2.907057845161376</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.644778497631407</v>
+        <v>2.319095509045127</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.750052240826932</v>
+        <v>0.7765572401980876</v>
       </c>
       <c r="L14">
-        <v>0.4519063096051639</v>
+        <v>0.283217382421924</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.644033621785951</v>
+        <v>0.9140285585466188</v>
       </c>
       <c r="C15">
-        <v>0.2299568333019977</v>
+        <v>0.06703343102620352</v>
       </c>
       <c r="D15">
-        <v>0.1122261032692435</v>
+        <v>0.1463472255016889</v>
       </c>
       <c r="E15">
-        <v>0.05449849557173536</v>
+        <v>0.06372616572863166</v>
       </c>
       <c r="F15">
-        <v>3.737101620328957</v>
+        <v>2.899022398192443</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.6247375045442</v>
+        <v>2.314088206396846</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.729072745550411</v>
+        <v>0.7719019983118471</v>
       </c>
       <c r="L15">
-        <v>0.4469270109529191</v>
+        <v>0.2821158040758007</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.532602802742787</v>
+        <v>0.8908783728921321</v>
       </c>
       <c r="C16">
-        <v>0.2140974623472118</v>
+        <v>0.06282840504773901</v>
       </c>
       <c r="D16">
-        <v>0.1118804507652875</v>
+        <v>0.1458689294891293</v>
       </c>
       <c r="E16">
-        <v>0.05187706360040067</v>
+        <v>0.06325486069335895</v>
       </c>
       <c r="F16">
-        <v>3.552293445535071</v>
+        <v>2.853239590081415</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.511198160468624</v>
+        <v>2.285568154236543</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.609894072844298</v>
+        <v>0.7453771210733464</v>
       </c>
       <c r="L16">
-        <v>0.4186694696619355</v>
+        <v>0.2758483547153361</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.465070564153734</v>
+        <v>0.8768446746979919</v>
       </c>
       <c r="C17">
-        <v>0.204482345357647</v>
+        <v>0.06024913228057471</v>
       </c>
       <c r="D17">
-        <v>0.1116731996813201</v>
+        <v>0.1455724898622641</v>
       </c>
       <c r="E17">
-        <v>0.05029389083325242</v>
+        <v>0.06297272529241837</v>
       </c>
       <c r="F17">
-        <v>3.440625806118817</v>
+        <v>2.825389219166084</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.442646300103846</v>
+        <v>2.268227540585571</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.537653682654621</v>
+        <v>0.7292407685753233</v>
       </c>
       <c r="L17">
-        <v>0.4015664883311274</v>
+        <v>0.2720437996606506</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.426510420962785</v>
+        <v>0.8688346437551502</v>
       </c>
       <c r="C18">
-        <v>0.1989903813659737</v>
+        <v>0.05876570611366105</v>
       </c>
       <c r="D18">
-        <v>0.1115555849302403</v>
+        <v>0.1454008671597791</v>
       </c>
       <c r="E18">
-        <v>0.04939196629345943</v>
+        <v>0.0628130199666046</v>
       </c>
       <c r="F18">
-        <v>3.376984765339955</v>
+        <v>2.809456859245728</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.403596568573064</v>
+        <v>2.258310655122528</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.496399831234982</v>
+        <v>0.7200093865931194</v>
       </c>
       <c r="L18">
-        <v>0.3918089336596182</v>
+        <v>0.2698703164734297</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.413501218296233</v>
+        <v>0.8661331932640337</v>
       </c>
       <c r="C19">
-        <v>0.1971371702767897</v>
+        <v>0.05826345800288379</v>
       </c>
       <c r="D19">
-        <v>0.1115160201780014</v>
+        <v>0.1453425657619221</v>
       </c>
       <c r="E19">
-        <v>0.04908803347714752</v>
+        <v>0.06275938822792781</v>
       </c>
       <c r="F19">
-        <v>3.355534231294627</v>
+        <v>2.804077257378367</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.390437890313891</v>
+        <v>2.254962737428713</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.482480840430668</v>
+        <v>0.716892348137435</v>
       </c>
       <c r="L19">
-        <v>0.3885183524298412</v>
+        <v>0.2691369516146551</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.47222977072866</v>
+        <v>0.8783321911039934</v>
       </c>
       <c r="C20">
-        <v>0.205501839845553</v>
+        <v>0.06052368880453685</v>
       </c>
       <c r="D20">
-        <v>0.1116950935419965</v>
+        <v>0.1456041619331216</v>
       </c>
       <c r="E20">
-        <v>0.05046151332264159</v>
+        <v>0.06300249296731764</v>
       </c>
       <c r="F20">
-        <v>3.452451369245352</v>
+        <v>2.828344987096386</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.449903938139414</v>
+        <v>2.270067577721719</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.545312552280393</v>
+        <v>0.730953352645173</v>
       </c>
       <c r="L20">
-        <v>0.4033787645420972</v>
+        <v>0.2724472691908915</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.673076652175553</v>
+        <v>0.9200575035960412</v>
       </c>
       <c r="C21">
-        <v>0.2340896970210196</v>
+        <v>0.06811922991887798</v>
       </c>
       <c r="D21">
-        <v>0.1123169731929323</v>
+        <v>0.1464697851736574</v>
       </c>
       <c r="E21">
-        <v>0.05518345654425616</v>
+        <v>0.0638500093064458</v>
       </c>
       <c r="F21">
-        <v>3.785376774729883</v>
+        <v>2.910915758684979</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.654412786517398</v>
+        <v>2.321499744576826</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.760131889604821</v>
+        <v>0.7787922546840775</v>
       </c>
       <c r="L21">
-        <v>0.4542991322528565</v>
+        <v>0.2837464204200586</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.807329064752452</v>
+        <v>0.9478781889630454</v>
       </c>
       <c r="C22">
-        <v>0.2531936906296295</v>
+        <v>0.07308500623219061</v>
       </c>
       <c r="D22">
-        <v>0.112741380932782</v>
+        <v>0.1470257391167209</v>
       </c>
       <c r="E22">
-        <v>0.0583580044145755</v>
+        <v>0.0644267911483638</v>
       </c>
       <c r="F22">
-        <v>4.009070890395947</v>
+        <v>2.965655678685948</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.792004198394977</v>
+        <v>2.355624719915227</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.90369242665048</v>
+        <v>0.8105032238776175</v>
       </c>
       <c r="L22">
-        <v>0.488412880694213</v>
+        <v>0.2912632992870101</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.735378318043246</v>
+        <v>0.9329793367512309</v>
       </c>
       <c r="C23">
-        <v>0.2429550189551577</v>
+        <v>0.07043449129093915</v>
       </c>
       <c r="D23">
-        <v>0.1125130237325465</v>
+        <v>0.146729902350728</v>
       </c>
       <c r="E23">
-        <v>0.05665501250858895</v>
+        <v>0.0641168590492498</v>
       </c>
       <c r="F23">
-        <v>3.889076811984324</v>
+        <v>2.936368762678626</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.718180580828502</v>
+        <v>2.337364634249809</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.826755069716057</v>
+        <v>0.7935376308481636</v>
       </c>
       <c r="L23">
-        <v>0.4701229124693498</v>
+        <v>0.2872392773052894</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.468992272907883</v>
+        <v>0.8776595038803805</v>
       </c>
       <c r="C24">
-        <v>0.2050408154148755</v>
+        <v>0.0603995635775334</v>
       </c>
       <c r="D24">
-        <v>0.1116851905816389</v>
+        <v>0.1455898467161347</v>
       </c>
       <c r="E24">
-        <v>0.05038570557907462</v>
+        <v>0.06298902722036459</v>
       </c>
       <c r="F24">
-        <v>3.447103302943304</v>
+        <v>2.827008437802903</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.446621639441886</v>
+        <v>2.269235533546919</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.541849116600901</v>
+        <v>0.7301789513033725</v>
       </c>
       <c r="L24">
-        <v>0.4025592016421058</v>
+        <v>0.272264817619245</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.192242619953134</v>
+        <v>0.8203495690275702</v>
       </c>
       <c r="C25">
-        <v>0.1655771722111297</v>
+        <v>0.0495787533871237</v>
       </c>
       <c r="D25">
-        <v>0.1108513585674515</v>
+        <v>0.1443172394101637</v>
       </c>
       <c r="E25">
-        <v>0.04394969355205802</v>
+        <v>0.06187079730114675</v>
       </c>
       <c r="F25">
-        <v>2.992412090599572</v>
+        <v>2.712346594024069</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.167956128921617</v>
+        <v>2.197923114728667</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.24564777636536</v>
+        <v>0.6637398292864134</v>
       </c>
       <c r="L25">
-        <v>0.3326678645094177</v>
+        <v>0.2566777937795166</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7801687900233389</v>
+        <v>0.9953721218207647</v>
       </c>
       <c r="C2">
-        <v>0.04160859039693321</v>
+        <v>0.13738968196391</v>
       </c>
       <c r="D2">
-        <v>0.143342175087998</v>
+        <v>0.1102708329160365</v>
       </c>
       <c r="E2">
-        <v>0.06113185119995279</v>
+        <v>0.03943840680648236</v>
       </c>
       <c r="F2">
-        <v>2.630708748447447</v>
+        <v>2.672455984771133</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.147253301571425</v>
+        <v>1.97243183098854</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6164355302459512</v>
+        <v>1.034682556596096</v>
       </c>
       <c r="L2">
-        <v>0.2456817495575621</v>
+        <v>0.2831869899105186</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7541894255479917</v>
+        <v>0.8652978625926835</v>
       </c>
       <c r="C3">
-        <v>0.03620255580473497</v>
+        <v>0.1186730373222531</v>
       </c>
       <c r="D3">
-        <v>0.1426570395144076</v>
+        <v>0.109890761213201</v>
       </c>
       <c r="E3">
-        <v>0.06068365956370769</v>
+        <v>0.03649973709188536</v>
       </c>
       <c r="F3">
-        <v>2.577096267988736</v>
+        <v>2.46307291571587</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.114043808880069</v>
+        <v>1.84481309203106</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5853739611387425</v>
+        <v>0.8951025098830598</v>
       </c>
       <c r="L3">
-        <v>0.238526883288003</v>
+        <v>0.2506323633887604</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7388538796103887</v>
+        <v>0.7868017987076712</v>
       </c>
       <c r="C4">
-        <v>0.03288011789013012</v>
+        <v>0.1073259060488283</v>
       </c>
       <c r="D4">
-        <v>0.1422241723569364</v>
+        <v>0.1096617843467342</v>
       </c>
       <c r="E4">
-        <v>0.06043441177349784</v>
+        <v>0.03474704728525069</v>
       </c>
       <c r="F4">
-        <v>2.545016477067776</v>
+        <v>2.337657825617441</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,16 +536,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.09420565580325</v>
+        <v>1.768532288197747</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5667910953254705</v>
+        <v>0.8107649303889843</v>
       </c>
       <c r="L4">
-        <v>0.2342796997543815</v>
+        <v>0.2310512718310633</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7327593670990211</v>
+        <v>0.7551205542820867</v>
       </c>
       <c r="C5">
-        <v>0.03152531484467147</v>
+        <v>0.102732149849075</v>
       </c>
       <c r="D5">
-        <v>0.1420446831958699</v>
+        <v>0.1095692770166607</v>
       </c>
       <c r="E5">
-        <v>0.06033936952587915</v>
+        <v>0.03404487004882739</v>
       </c>
       <c r="F5">
-        <v>2.532153828972611</v>
+        <v>2.287269446266464</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.086259911447826</v>
+        <v>1.737924179225146</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5593412042661896</v>
+        <v>0.7766982234458624</v>
       </c>
       <c r="L5">
-        <v>0.2325855804221817</v>
+        <v>0.2231640883284882</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7317567298549648</v>
+        <v>0.7498773640370473</v>
       </c>
       <c r="C6">
-        <v>0.03130029460496075</v>
+        <v>0.1019710183589382</v>
       </c>
       <c r="D6">
-        <v>0.1420146916058158</v>
+        <v>0.1095539563251009</v>
       </c>
       <c r="E6">
-        <v>0.06032398226020952</v>
+        <v>0.03392897624760849</v>
       </c>
       <c r="F6">
-        <v>2.530030666377584</v>
+        <v>2.278943925900535</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,16 +630,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.084948875163789</v>
+        <v>1.732869261137552</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5581115653201039</v>
+        <v>0.7710585227364675</v>
       </c>
       <c r="L6">
-        <v>0.2323064847839476</v>
+        <v>0.2218597153143804</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7387710599403192</v>
+        <v>0.7863733413872751</v>
       </c>
       <c r="C7">
-        <v>0.03286185024772692</v>
+        <v>0.1072638382015469</v>
       </c>
       <c r="D7">
-        <v>0.1422217642595385</v>
+        <v>0.109660533893333</v>
       </c>
       <c r="E7">
-        <v>0.06043310356150933</v>
+        <v>0.03473752984212553</v>
       </c>
       <c r="F7">
-        <v>2.544842157063854</v>
+        <v>2.336975449523266</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.094097936746337</v>
+        <v>1.76811762328353</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5666901266275488</v>
+        <v>0.8103043268792192</v>
       </c>
       <c r="L7">
-        <v>0.2342567039733723</v>
+        <v>0.2309445418992482</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7710832498189859</v>
+        <v>0.9502143891780861</v>
       </c>
       <c r="C8">
-        <v>0.03974517324338933</v>
+        <v>0.1309022341940391</v>
       </c>
       <c r="D8">
-        <v>0.1431084544871055</v>
+        <v>0.1101386852139683</v>
       </c>
       <c r="E8">
-        <v>0.06097193249065036</v>
+        <v>0.03841384723805419</v>
       </c>
       <c r="F8">
-        <v>2.612048684312384</v>
+        <v>2.599562534824955</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.135687664364212</v>
+        <v>1.927969258910991</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6056238609949673</v>
+        <v>0.9862458918172479</v>
       </c>
       <c r="L8">
-        <v>0.2431844276398181</v>
+        <v>0.2718711708796491</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8393404167546521</v>
+        <v>1.284257165963737</v>
       </c>
       <c r="C9">
-        <v>0.05322382392630232</v>
+        <v>0.1787130324918706</v>
       </c>
       <c r="D9">
-        <v>0.1447517514737484</v>
+        <v>0.1111259660431934</v>
       </c>
       <c r="E9">
-        <v>0.06223435567556734</v>
+        <v>0.04607900850665914</v>
       </c>
       <c r="F9">
-        <v>2.750534342411328</v>
+        <v>3.143014371098161</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.221657233728934</v>
+        <v>2.260162891104613</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6858677430424507</v>
+        <v>1.344165502438671</v>
       </c>
       <c r="L9">
-        <v>0.2618532966541807</v>
+        <v>0.355866655776893</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8924880890712359</v>
+        <v>1.540348511336475</v>
       </c>
       <c r="C10">
-        <v>0.06312273449840688</v>
+        <v>0.215200068127956</v>
       </c>
       <c r="D10">
-        <v>0.1459026043698088</v>
+        <v>0.1119043272926667</v>
       </c>
       <c r="E10">
-        <v>0.0632874026881467</v>
+        <v>0.05205892635342479</v>
       </c>
       <c r="F10">
-        <v>2.856429242130105</v>
+        <v>3.565117904569718</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.287554572073958</v>
+        <v>2.519073611366039</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7472251482336389</v>
+        <v>1.618179108173365</v>
       </c>
       <c r="L10">
-        <v>0.2762844874469295</v>
+        <v>0.42063223229367</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9173216697800797</v>
+        <v>1.65989571157138</v>
       </c>
       <c r="C11">
-        <v>0.06762696470234175</v>
+        <v>0.2322140500846075</v>
       </c>
       <c r="D11">
-        <v>0.1464142668620028</v>
+        <v>0.1122756918719858</v>
       </c>
       <c r="E11">
-        <v>0.06379375755389205</v>
+        <v>0.05487250897702722</v>
       </c>
       <c r="F11">
-        <v>2.905520194086591</v>
+        <v>3.763462163184727</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.318137281930518</v>
+        <v>2.640940796275913</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7756664249610026</v>
+        <v>1.746036091220105</v>
       </c>
       <c r="L11">
-        <v>0.2830065516543954</v>
+        <v>0.4509530010411851</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9268200931948911</v>
+        <v>1.70567181051436</v>
       </c>
       <c r="C12">
-        <v>0.06933289356190642</v>
+        <v>0.2387278985637806</v>
       </c>
       <c r="D12">
-        <v>0.1466063422340866</v>
+        <v>0.1124193511543083</v>
       </c>
       <c r="E12">
-        <v>0.06398942885917691</v>
+        <v>0.05595298190264941</v>
       </c>
       <c r="F12">
-        <v>2.924242794660529</v>
+        <v>3.839606929892255</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.329805929395761</v>
+        <v>2.687756573015051</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7865129249303209</v>
+        <v>1.794988501950968</v>
       </c>
       <c r="L12">
-        <v>0.2855747316200734</v>
+        <v>0.4625762743473842</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9247702339626755</v>
+        <v>1.695789438806685</v>
       </c>
       <c r="C13">
-        <v>0.06896547733192904</v>
+        <v>0.2373216729881591</v>
       </c>
       <c r="D13">
-        <v>0.1465650496721409</v>
+        <v>0.1123882673195666</v>
       </c>
       <c r="E13">
-        <v>0.063947112986245</v>
+        <v>0.05571958668727817</v>
       </c>
       <c r="F13">
-        <v>2.920204623134623</v>
+        <v>3.823159551844213</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.327288970937929</v>
+        <v>2.677642918349875</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7841735345879499</v>
+        <v>1.784420617948456</v>
       </c>
       <c r="L13">
-        <v>0.285020618295718</v>
+        <v>0.4600663953444553</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9181012166126834</v>
+        <v>1.663651180222132</v>
       </c>
       <c r="C14">
-        <v>0.06776730637633932</v>
+        <v>0.2327484558928745</v>
       </c>
       <c r="D14">
-        <v>0.1464301025413803</v>
+        <v>0.1122874466862598</v>
       </c>
       <c r="E14">
-        <v>0.06380977688741396</v>
+        <v>0.05496108904236863</v>
       </c>
       <c r="F14">
-        <v>2.907057845161376</v>
+        <v>3.769705101412285</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.319095509045127</v>
+        <v>2.644778497631407</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7765572401980876</v>
+        <v>1.750052240826903</v>
       </c>
       <c r="L14">
-        <v>0.283217382421924</v>
+        <v>0.4519063096051781</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9140285585466188</v>
+        <v>1.644033621786065</v>
       </c>
       <c r="C15">
-        <v>0.06703343102620352</v>
+        <v>0.2299568333017845</v>
       </c>
       <c r="D15">
-        <v>0.1463472255016889</v>
+        <v>0.1122261032692435</v>
       </c>
       <c r="E15">
-        <v>0.06372616572863166</v>
+        <v>0.05449849557173536</v>
       </c>
       <c r="F15">
-        <v>2.899022398192443</v>
+        <v>3.737101620328957</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.314088206396846</v>
+        <v>2.624737504544228</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7719019983118471</v>
+        <v>1.72907274555044</v>
       </c>
       <c r="L15">
-        <v>0.2821158040758007</v>
+        <v>0.446927010952777</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8908783728921321</v>
+        <v>1.532602802743014</v>
       </c>
       <c r="C16">
-        <v>0.06282840504773901</v>
+        <v>0.2140974623474392</v>
       </c>
       <c r="D16">
-        <v>0.1458689294891293</v>
+        <v>0.1118804507652733</v>
       </c>
       <c r="E16">
-        <v>0.06325486069335895</v>
+        <v>0.05187706360039712</v>
       </c>
       <c r="F16">
-        <v>2.853239590081415</v>
+        <v>3.552293445535042</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.285568154236543</v>
+        <v>2.511198160468609</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7453771210733464</v>
+        <v>1.609894072844327</v>
       </c>
       <c r="L16">
-        <v>0.2758483547153361</v>
+        <v>0.4186694696616655</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8768446746979919</v>
+        <v>1.465070564153677</v>
       </c>
       <c r="C17">
-        <v>0.06024913228057471</v>
+        <v>0.2044823453578886</v>
       </c>
       <c r="D17">
-        <v>0.1455724898622641</v>
+        <v>0.1116731996814266</v>
       </c>
       <c r="E17">
-        <v>0.06297272529241837</v>
+        <v>0.05029389083321689</v>
       </c>
       <c r="F17">
-        <v>2.825389219166084</v>
+        <v>3.440625806118845</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.268227540585571</v>
+        <v>2.442646300103846</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7292407685753233</v>
+        <v>1.537653682654678</v>
       </c>
       <c r="L17">
-        <v>0.2720437996606506</v>
+        <v>0.4015664883311558</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8688346437551502</v>
+        <v>1.426510420962757</v>
       </c>
       <c r="C18">
-        <v>0.05876570611366105</v>
+        <v>0.1989903813662295</v>
       </c>
       <c r="D18">
-        <v>0.1454008671597791</v>
+        <v>0.1115555849303362</v>
       </c>
       <c r="E18">
-        <v>0.0628130199666046</v>
+        <v>0.04939196629350562</v>
       </c>
       <c r="F18">
-        <v>2.809456859245728</v>
+        <v>3.376984765339927</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.258310655122528</v>
+        <v>2.403596568573107</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7200093865931194</v>
+        <v>1.496399831234868</v>
       </c>
       <c r="L18">
-        <v>0.2698703164734297</v>
+        <v>0.3918089336595614</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8661331932640337</v>
+        <v>1.413501218296233</v>
       </c>
       <c r="C19">
-        <v>0.05826345800288379</v>
+        <v>0.197137170277017</v>
       </c>
       <c r="D19">
-        <v>0.1453425657619221</v>
+        <v>0.1115160201777421</v>
       </c>
       <c r="E19">
-        <v>0.06275938822792781</v>
+        <v>0.04908803347716528</v>
       </c>
       <c r="F19">
-        <v>2.804077257378367</v>
+        <v>3.355534231294627</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.254962737428713</v>
+        <v>2.390437890313933</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.716892348137435</v>
+        <v>1.48248084043064</v>
       </c>
       <c r="L19">
-        <v>0.2691369516146551</v>
+        <v>0.388518352429756</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8783321911039934</v>
+        <v>1.472229770728546</v>
       </c>
       <c r="C20">
-        <v>0.06052368880453685</v>
+        <v>0.205501839845553</v>
       </c>
       <c r="D20">
-        <v>0.1456041619331216</v>
+        <v>0.1116950935419929</v>
       </c>
       <c r="E20">
-        <v>0.06300249296731764</v>
+        <v>0.05046151332263804</v>
       </c>
       <c r="F20">
-        <v>2.828344987096386</v>
+        <v>3.452451369245438</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.270067577721719</v>
+        <v>2.449903938139428</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.730953352645173</v>
+        <v>1.545312552280251</v>
       </c>
       <c r="L20">
-        <v>0.2724472691908915</v>
+        <v>0.4033787645419693</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9200575035960412</v>
+        <v>1.673076652175553</v>
       </c>
       <c r="C21">
-        <v>0.06811922991887798</v>
+        <v>0.2340896970207069</v>
       </c>
       <c r="D21">
-        <v>0.1464697851736574</v>
+        <v>0.112316973192506</v>
       </c>
       <c r="E21">
-        <v>0.0638500093064458</v>
+        <v>0.0551834565442384</v>
       </c>
       <c r="F21">
-        <v>2.910915758684979</v>
+        <v>3.785376774729912</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.321499744576826</v>
+        <v>2.654412786517454</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7787922546840775</v>
+        <v>1.760131889604764</v>
       </c>
       <c r="L21">
-        <v>0.2837464204200586</v>
+        <v>0.4542991322529275</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9478781889630454</v>
+        <v>1.80732906475248</v>
       </c>
       <c r="C22">
-        <v>0.07308500623219061</v>
+        <v>0.2531936906293737</v>
       </c>
       <c r="D22">
-        <v>0.1470257391167209</v>
+        <v>0.1127413809331088</v>
       </c>
       <c r="E22">
-        <v>0.0644267911483638</v>
+        <v>0.05835800441453287</v>
       </c>
       <c r="F22">
-        <v>2.965655678685948</v>
+        <v>4.009070890395918</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.355624719915227</v>
+        <v>2.792004198394991</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8105032238776175</v>
+        <v>1.903692426650764</v>
       </c>
       <c r="L22">
-        <v>0.2912632992870101</v>
+        <v>0.4884128806941135</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9329793367512309</v>
+        <v>1.735378318043104</v>
       </c>
       <c r="C23">
-        <v>0.07043449129093915</v>
+        <v>0.2429550189551719</v>
       </c>
       <c r="D23">
-        <v>0.146729902350728</v>
+        <v>0.1125130237321912</v>
       </c>
       <c r="E23">
-        <v>0.0641168590492498</v>
+        <v>0.05665501250862093</v>
       </c>
       <c r="F23">
-        <v>2.936368762678626</v>
+        <v>3.889076811984268</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.337364634249809</v>
+        <v>2.718180580828502</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7935376308481636</v>
+        <v>1.826755069716</v>
       </c>
       <c r="L23">
-        <v>0.2872392773052894</v>
+        <v>0.4701229124692077</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8776595038803805</v>
+        <v>1.468992272907798</v>
       </c>
       <c r="C24">
-        <v>0.0603995635775334</v>
+        <v>0.2050408154148897</v>
       </c>
       <c r="D24">
-        <v>0.1455898467161347</v>
+        <v>0.1116851905816425</v>
       </c>
       <c r="E24">
-        <v>0.06298902722036459</v>
+        <v>0.05038570557911015</v>
       </c>
       <c r="F24">
-        <v>2.827008437802903</v>
+        <v>3.447103302943333</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.269235533546919</v>
+        <v>2.446621639441901</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7301789513033725</v>
+        <v>1.541849116600872</v>
       </c>
       <c r="L24">
-        <v>0.272264817619245</v>
+        <v>0.4025592016421058</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8203495690275702</v>
+        <v>1.19224261995339</v>
       </c>
       <c r="C25">
-        <v>0.0495787533871237</v>
+        <v>0.1655771722111297</v>
       </c>
       <c r="D25">
-        <v>0.1443172394101637</v>
+        <v>0.1108513585674551</v>
       </c>
       <c r="E25">
-        <v>0.06187079730114675</v>
+        <v>0.04394969355208644</v>
       </c>
       <c r="F25">
-        <v>2.712346594024069</v>
+        <v>2.992412090599572</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.197923114728667</v>
+        <v>2.167956128921631</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6637398292864134</v>
+        <v>1.24564777636536</v>
       </c>
       <c r="L25">
-        <v>0.2566777937795166</v>
+        <v>0.3326678645094603</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9953721218207647</v>
+        <v>0.7691840748884147</v>
       </c>
       <c r="C2">
-        <v>0.13738968196391</v>
+        <v>0.1704183126483088</v>
       </c>
       <c r="D2">
-        <v>0.1102708329160365</v>
+        <v>0.07295621229686589</v>
       </c>
       <c r="E2">
-        <v>0.03943840680648236</v>
+        <v>0.3624753387690802</v>
       </c>
       <c r="F2">
-        <v>2.672455984771133</v>
+        <v>0.5327427896521328</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.505218858710577E-05</v>
       </c>
       <c r="I2">
-        <v>1.97243183098854</v>
+        <v>0.0009335528489855527</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>1.034682556596096</v>
+        <v>0.3476313370051933</v>
       </c>
       <c r="L2">
-        <v>0.2831869899105186</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8846630614420405</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5790444458866446</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.629243401222425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8652978625926835</v>
+        <v>0.6720705264124263</v>
       </c>
       <c r="C3">
-        <v>0.1186730373222531</v>
+        <v>0.1522915652222707</v>
       </c>
       <c r="D3">
-        <v>0.109890761213201</v>
+        <v>0.06605262651770261</v>
       </c>
       <c r="E3">
-        <v>0.03649973709188536</v>
+        <v>0.3183031286268871</v>
       </c>
       <c r="F3">
-        <v>2.46307291571587</v>
+        <v>0.5068605434077469</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0002862527182634356</v>
       </c>
       <c r="I3">
-        <v>1.84481309203106</v>
+        <v>0.001582785568005285</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0.8951025098830598</v>
+        <v>0.3467335575919357</v>
       </c>
       <c r="L3">
-        <v>0.2506323633887604</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7760998634085752</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5040367814534434</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.585935751858614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7868017987076712</v>
+        <v>0.6121988678788739</v>
       </c>
       <c r="C4">
-        <v>0.1073259060488283</v>
+        <v>0.1412956998906481</v>
       </c>
       <c r="D4">
-        <v>0.1096617843467342</v>
+        <v>0.06181455710280659</v>
       </c>
       <c r="E4">
-        <v>0.03474704728525069</v>
+        <v>0.2911585436648068</v>
       </c>
       <c r="F4">
-        <v>2.337657825617441</v>
+        <v>0.4913687193359806</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0006359468149970127</v>
       </c>
       <c r="I4">
-        <v>1.768532288197747</v>
+        <v>0.002172119476859802</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0.8107649303889843</v>
+        <v>0.346354481665319</v>
       </c>
       <c r="L4">
-        <v>0.2310512718310633</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7094349687546213</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4580229717486191</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.560478337793427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7551205542820867</v>
+        <v>0.5874335516873828</v>
       </c>
       <c r="C5">
-        <v>0.102732149849075</v>
+        <v>0.1372125957478971</v>
       </c>
       <c r="D5">
-        <v>0.1095692770166607</v>
+        <v>0.06015748682077771</v>
       </c>
       <c r="E5">
-        <v>0.03404487004882739</v>
+        <v>0.2800369164478127</v>
       </c>
       <c r="F5">
-        <v>2.287269446266464</v>
+        <v>0.4845695604430205</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0008228312236264745</v>
       </c>
       <c r="I5">
-        <v>1.737924179225146</v>
+        <v>0.002531638757988119</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0.7766982234458624</v>
+        <v>0.3457846258328949</v>
       </c>
       <c r="L5">
-        <v>0.2231640883284882</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6825720491590914</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4393511598330306</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.548471380507252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7498773640370473</v>
+        <v>0.5829457782188001</v>
       </c>
       <c r="C6">
-        <v>0.1019710183589382</v>
+        <v>0.1369875111084582</v>
       </c>
       <c r="D6">
-        <v>0.1095539563251009</v>
+        <v>0.05996854584333988</v>
       </c>
       <c r="E6">
-        <v>0.03392897624760849</v>
+        <v>0.2781271384045425</v>
       </c>
       <c r="F6">
-        <v>2.278943925900535</v>
+        <v>0.4827358348913293</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.000857208559962519</v>
       </c>
       <c r="I6">
-        <v>1.732869261137552</v>
+        <v>0.002691329039599566</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0.7710585227364675</v>
+        <v>0.3451347847335029</v>
       </c>
       <c r="L6">
-        <v>0.2218597153143804</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6784920650992206</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.436341040577453</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.544167865741258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7863733413872751</v>
+        <v>0.6108467693984494</v>
       </c>
       <c r="C7">
-        <v>0.1072638382015469</v>
+        <v>0.142475038524438</v>
       </c>
       <c r="D7">
-        <v>0.109660533893333</v>
+        <v>0.06202871729369974</v>
       </c>
       <c r="E7">
-        <v>0.03473752984212553</v>
+        <v>0.2908379480159411</v>
       </c>
       <c r="F7">
-        <v>2.336975449523266</v>
+        <v>0.4893368894576753</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0006400339720413761</v>
       </c>
       <c r="I7">
-        <v>1.76811762328353</v>
+        <v>0.002426537211717594</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0.8103043268792192</v>
+        <v>0.3448250784391966</v>
       </c>
       <c r="L7">
-        <v>0.2309445418992482</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7101173127448135</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4580177393236582</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.553967868552448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9502143891780861</v>
+        <v>0.7343870560199264</v>
       </c>
       <c r="C8">
-        <v>0.1309022341940391</v>
+        <v>0.1657883637098507</v>
       </c>
       <c r="D8">
-        <v>0.1101386852139683</v>
+        <v>0.07089291726805413</v>
       </c>
       <c r="E8">
-        <v>0.03841384723805419</v>
+        <v>0.3470207238275336</v>
       </c>
       <c r="F8">
-        <v>2.599562534824955</v>
+        <v>0.5211695141969983</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.986001624742499E-05</v>
       </c>
       <c r="I8">
-        <v>1.927969258910991</v>
+        <v>0.001414845964780476</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0.9862458918172479</v>
+        <v>0.3452843572876354</v>
       </c>
       <c r="L8">
-        <v>0.2718711708796491</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8486255317158395</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5534985957739451</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.605700675066885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.284257165963737</v>
+        <v>0.9766870182617424</v>
       </c>
       <c r="C9">
-        <v>0.1787130324918706</v>
+        <v>0.2104854144769632</v>
       </c>
       <c r="D9">
-        <v>0.1111259660431934</v>
+        <v>0.08787586530544189</v>
       </c>
       <c r="E9">
-        <v>0.04607900850665914</v>
+        <v>0.4574808134804229</v>
       </c>
       <c r="F9">
-        <v>3.143014371098161</v>
+        <v>0.5905023063345851</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.000512620335660241</v>
       </c>
       <c r="I9">
-        <v>2.260162891104613</v>
+        <v>0.0006715575038116484</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>1.344165502438671</v>
+        <v>0.350336856986857</v>
       </c>
       <c r="L9">
-        <v>0.355866655776893</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.118586083036263</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7408518336265288</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.728146770295353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.540348511336475</v>
+        <v>1.159518301895332</v>
       </c>
       <c r="C10">
-        <v>0.215200068127956</v>
+        <v>0.2449764009579241</v>
       </c>
       <c r="D10">
-        <v>0.1119043272926667</v>
+        <v>0.1018477133645632</v>
       </c>
       <c r="E10">
-        <v>0.05205892635342479</v>
+        <v>0.5049973968399186</v>
       </c>
       <c r="F10">
-        <v>3.565117904569718</v>
+        <v>0.6332149577095549</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00196116961248638</v>
       </c>
       <c r="I10">
-        <v>2.519073611366039</v>
+        <v>0.001365822154046903</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>1.618179108173365</v>
+        <v>0.3485974738310205</v>
       </c>
       <c r="L10">
-        <v>0.42063223229367</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.32356862687908</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8495227512336356</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.790472190815592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.65989571157138</v>
+        <v>1.297089208364724</v>
       </c>
       <c r="C11">
-        <v>0.2322140500846075</v>
+        <v>0.2637196578747876</v>
       </c>
       <c r="D11">
-        <v>0.1122756918719858</v>
+        <v>0.1209325863062816</v>
       </c>
       <c r="E11">
-        <v>0.05487250897702722</v>
+        <v>0.2776262830201901</v>
       </c>
       <c r="F11">
-        <v>3.763462163184727</v>
+        <v>0.5676967425958779</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02005795945365918</v>
       </c>
       <c r="I11">
-        <v>2.640940796275913</v>
+        <v>0.00216129118881625</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>1.746036091220105</v>
+        <v>0.2991406415454385</v>
       </c>
       <c r="L11">
-        <v>0.4509530010411851</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.468721069697125</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6578190889599043</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.549099743067273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.70567181051436</v>
+        <v>1.37935282366783</v>
       </c>
       <c r="C12">
-        <v>0.2387278985637806</v>
+        <v>0.2703907546192283</v>
       </c>
       <c r="D12">
-        <v>0.1124193511543083</v>
+        <v>0.1347843619937521</v>
       </c>
       <c r="E12">
-        <v>0.05595298190264941</v>
+        <v>0.135754472349749</v>
       </c>
       <c r="F12">
-        <v>3.839606929892255</v>
+        <v>0.5087302797949107</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0583307907606212</v>
       </c>
       <c r="I12">
-        <v>2.687756573015051</v>
+        <v>0.002230011738624249</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>1.794988501950968</v>
+        <v>0.2634606432558506</v>
       </c>
       <c r="L12">
-        <v>0.4625762743473842</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.548849650776106</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4955203831415531</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.354728826609261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.695789438806685</v>
+        <v>1.42133985348093</v>
       </c>
       <c r="C13">
-        <v>0.2373216729881591</v>
+        <v>0.2700590282937583</v>
       </c>
       <c r="D13">
-        <v>0.1123882673195666</v>
+        <v>0.1456186652004305</v>
       </c>
       <c r="E13">
-        <v>0.05571958668727817</v>
+        <v>0.0507346946142313</v>
       </c>
       <c r="F13">
-        <v>3.823159551844213</v>
+        <v>0.4482534137196339</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1136968269900507</v>
       </c>
       <c r="I13">
-        <v>2.677642918349875</v>
+        <v>0.002066309823009149</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>1.784420617948456</v>
+        <v>0.2337559200650539</v>
       </c>
       <c r="L13">
-        <v>0.4600663953444553</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.584408473852449</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.347679673513376</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.174825224223142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.663651180222132</v>
+        <v>1.432099880376171</v>
       </c>
       <c r="C14">
-        <v>0.2327484558928745</v>
+        <v>0.2670863512422841</v>
       </c>
       <c r="D14">
-        <v>0.1122874466862598</v>
+        <v>0.1519662745475046</v>
       </c>
       <c r="E14">
-        <v>0.05496108904236863</v>
+        <v>0.02487532475763654</v>
       </c>
       <c r="F14">
-        <v>3.769705101412285</v>
+        <v>0.4053901924349077</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1628090809402636</v>
       </c>
       <c r="I14">
-        <v>2.644778497631407</v>
+        <v>0.001939946570827189</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>1.750052240826903</v>
+        <v>0.2158804681876898</v>
       </c>
       <c r="L14">
-        <v>0.4519063096051781</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.589435049563093</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.254729990663904</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.056477633088889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.644033621786065</v>
+        <v>1.425131349364307</v>
       </c>
       <c r="C15">
-        <v>0.2299568333017845</v>
+        <v>0.2653866651825325</v>
       </c>
       <c r="D15">
-        <v>0.1122261032692435</v>
+        <v>0.1528310748320365</v>
       </c>
       <c r="E15">
-        <v>0.05449849557173536</v>
+        <v>0.02296102705525582</v>
       </c>
       <c r="F15">
-        <v>3.737101620328957</v>
+        <v>0.3938103505222941</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1752364328227429</v>
       </c>
       <c r="I15">
-        <v>2.624737504544228</v>
+        <v>0.001976016493300925</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>1.72907274555044</v>
+        <v>0.2120357026324449</v>
       </c>
       <c r="L15">
-        <v>0.446927010952777</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.581178081373992</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2325258594126538</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.027564719167543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.532602802743014</v>
+        <v>1.335277403870379</v>
       </c>
       <c r="C16">
-        <v>0.2140974623474392</v>
+        <v>0.2512322779570013</v>
       </c>
       <c r="D16">
-        <v>0.1118804507652733</v>
+        <v>0.1443213393039571</v>
       </c>
       <c r="E16">
-        <v>0.05187706360039712</v>
+        <v>0.02273734142934533</v>
       </c>
       <c r="F16">
-        <v>3.552293445535042</v>
+        <v>0.3869975591907178</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621541883114332</v>
       </c>
       <c r="I16">
-        <v>2.511198160468609</v>
+        <v>0.001758409372595082</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>1.609894072844327</v>
+        <v>0.2178426111611778</v>
       </c>
       <c r="L16">
-        <v>0.4186694696616655</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.484500272059449</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2209889791271706</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.03435291379455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.465070564153677</v>
+        <v>1.260855674694596</v>
       </c>
       <c r="C17">
-        <v>0.2044823453578886</v>
+        <v>0.2420419029742504</v>
       </c>
       <c r="D17">
-        <v>0.1116731996814266</v>
+        <v>0.1344353637986302</v>
       </c>
       <c r="E17">
-        <v>0.05029389083321689</v>
+        <v>0.0305759593289574</v>
       </c>
       <c r="F17">
-        <v>3.440625806118845</v>
+        <v>0.4042612090313185</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242148813750532</v>
       </c>
       <c r="I17">
-        <v>2.442646300103846</v>
+        <v>0.001708039393117033</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>1.537653682654678</v>
+        <v>0.2315085700722452</v>
       </c>
       <c r="L17">
-        <v>0.4015664883311558</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.407994933957525</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2586238230454363</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.10118403322079</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.426510420962757</v>
+        <v>1.193235497218211</v>
       </c>
       <c r="C18">
-        <v>0.1989903813662295</v>
+        <v>0.2349809038960018</v>
       </c>
       <c r="D18">
-        <v>0.1115555849303362</v>
+        <v>0.1224161027210755</v>
       </c>
       <c r="E18">
-        <v>0.04939196629350562</v>
+        <v>0.07514349905003925</v>
       </c>
       <c r="F18">
-        <v>3.376984765339927</v>
+        <v>0.446830421718758</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07138515216932717</v>
       </c>
       <c r="I18">
-        <v>2.403596568573107</v>
+        <v>0.001461621444314609</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>1.496399831234868</v>
+        <v>0.2560471861867413</v>
       </c>
       <c r="L18">
-        <v>0.3918089336595614</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.33997543649059</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3543301465610682</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.237918637312447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.413501218296233</v>
+        <v>1.135175500172181</v>
       </c>
       <c r="C19">
-        <v>0.197137170277017</v>
+        <v>0.2328261580863966</v>
       </c>
       <c r="D19">
-        <v>0.1115160201777421</v>
+        <v>0.1107419153227198</v>
       </c>
       <c r="E19">
-        <v>0.04908803347716528</v>
+        <v>0.1895942243066955</v>
       </c>
       <c r="F19">
-        <v>3.355534231294627</v>
+        <v>0.5060973333790102</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.0263647350220495</v>
       </c>
       <c r="I19">
-        <v>2.390437890313933</v>
+        <v>0.001591781451733887</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>1.48248084043064</v>
+        <v>0.2883532900292352</v>
       </c>
       <c r="L19">
-        <v>0.388518352429756</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.287079292754754</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5084889427080341</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.423226941863618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.472229770728546</v>
+        <v>1.108525524128453</v>
       </c>
       <c r="C20">
-        <v>0.205501839845553</v>
+        <v>0.2398618014612452</v>
       </c>
       <c r="D20">
-        <v>0.1116950935419929</v>
+        <v>0.09900459511545279</v>
       </c>
       <c r="E20">
-        <v>0.05046151332263804</v>
+        <v>0.4905551710509286</v>
       </c>
       <c r="F20">
-        <v>3.452451369245438</v>
+        <v>0.6154384582995149</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001479662055283271</v>
       </c>
       <c r="I20">
-        <v>2.449903938139428</v>
+        <v>0.001858687219680633</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>1.545312552280251</v>
+        <v>0.3441602939050661</v>
       </c>
       <c r="L20">
-        <v>0.4033787645419693</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.273284104303201</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.8204999924089478</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.752937075601267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.673076652175553</v>
+        <v>1.239655461290795</v>
       </c>
       <c r="C21">
-        <v>0.2340896970207069</v>
+        <v>0.2657742870710109</v>
       </c>
       <c r="D21">
-        <v>0.112316973192506</v>
+        <v>0.1075587463149432</v>
       </c>
       <c r="E21">
-        <v>0.0551834565442384</v>
+        <v>0.5794914979037173</v>
       </c>
       <c r="F21">
-        <v>3.785376774729912</v>
+        <v>0.6655173956685303</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.002972881042925479</v>
       </c>
       <c r="I21">
-        <v>2.654412786517454</v>
+        <v>0.002650131973087611</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>1.760131889604764</v>
+        <v>0.3530325610849552</v>
       </c>
       <c r="L21">
-        <v>0.4542991322529275</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.421658969416313</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9500768695923014</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.856134815540429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.80732906475248</v>
+        <v>1.32979074103784</v>
       </c>
       <c r="C22">
-        <v>0.2531936906293737</v>
+        <v>0.2813127495379604</v>
       </c>
       <c r="D22">
-        <v>0.1127413809331088</v>
+        <v>0.1135176067906229</v>
       </c>
       <c r="E22">
-        <v>0.05835800441453287</v>
+        <v>0.6207648916644075</v>
       </c>
       <c r="F22">
-        <v>4.009070890395918</v>
+        <v>0.6963608662397078</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.004204657094751596</v>
       </c>
       <c r="I22">
-        <v>2.792004198394991</v>
+        <v>0.003116622133449098</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>1.903692426650764</v>
+        <v>0.3580634147763959</v>
       </c>
       <c r="L22">
-        <v>0.4884128806941135</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.520286879353677</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.019527209834578</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.917271811590211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.735378318043104</v>
+        <v>1.282936600383181</v>
       </c>
       <c r="C23">
-        <v>0.2429550189551719</v>
+        <v>0.2714694103162287</v>
       </c>
       <c r="D23">
-        <v>0.1125130237321912</v>
+        <v>0.1100396727370168</v>
       </c>
       <c r="E23">
-        <v>0.05665501250862093</v>
+        <v>0.5989293677548204</v>
       </c>
       <c r="F23">
-        <v>3.889076811984268</v>
+        <v>0.6821061190520723</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.003526793404601603</v>
       </c>
       <c r="I23">
-        <v>2.718180580828502</v>
+        <v>0.002556794106544302</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>1.826755069716</v>
+        <v>0.3570914081283405</v>
       </c>
       <c r="L23">
-        <v>0.4701229124692077</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.466340517025117</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9821395755079507</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.891818902429918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.468992272907798</v>
+        <v>1.103375510845638</v>
       </c>
       <c r="C24">
-        <v>0.2050408154148897</v>
+        <v>0.2370557815890777</v>
       </c>
       <c r="D24">
-        <v>0.1116851905816425</v>
+        <v>0.09737125455291817</v>
       </c>
       <c r="E24">
-        <v>0.05038570557911015</v>
+        <v>0.5161550384612283</v>
       </c>
       <c r="F24">
-        <v>3.447103302943333</v>
+        <v>0.6258199548812655</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001461811865108853</v>
       </c>
       <c r="I24">
-        <v>2.446621639441901</v>
+        <v>0.001386206031961379</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>1.541849116600872</v>
+        <v>0.3511959110301142</v>
       </c>
       <c r="L24">
-        <v>0.4025592016421058</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.264542324683418</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8414910044909547</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.787384990412079</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.19224261995339</v>
+        <v>0.9094302452679131</v>
       </c>
       <c r="C25">
-        <v>0.1655771722111297</v>
+        <v>0.2005338264929151</v>
       </c>
       <c r="D25">
-        <v>0.1108513585674551</v>
+        <v>0.08371673515552658</v>
       </c>
       <c r="E25">
-        <v>0.04394969355208644</v>
+        <v>0.4272654543686656</v>
       </c>
       <c r="F25">
-        <v>2.992412090599572</v>
+        <v>0.5678485874419508</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0002084682134557703</v>
       </c>
       <c r="I25">
-        <v>2.167956128921631</v>
+        <v>0.001104345769484816</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>1.24564777636536</v>
+        <v>0.3461007733936512</v>
       </c>
       <c r="L25">
-        <v>0.3326678645094603</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.047417943037345</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.6905241950208207</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.682530581194044</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_54/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7691840748884147</v>
+        <v>0.7591863804201182</v>
       </c>
       <c r="C2">
-        <v>0.1704183126483088</v>
+        <v>0.1853970442816433</v>
       </c>
       <c r="D2">
-        <v>0.07295621229686589</v>
+        <v>0.07613162507994531</v>
       </c>
       <c r="E2">
-        <v>0.3624753387690802</v>
+        <v>0.3622920202605187</v>
       </c>
       <c r="F2">
-        <v>0.5327427896521328</v>
+        <v>0.4893677458709291</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.505218858710577E-05</v>
+        <v>7.514536883856948E-07</v>
       </c>
       <c r="I2">
-        <v>0.0009335528489855527</v>
+        <v>0.0006855467631829981</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.3476313370051933</v>
+        <v>0.3062574902615722</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1576805240473149</v>
       </c>
       <c r="M2">
-        <v>0.8846630614420405</v>
+        <v>0.07991973091989557</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5790444458866446</v>
+        <v>0.907571158118003</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.629243401222425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5847275686806341</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.478686897376264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6720705264124263</v>
+        <v>0.6662498804048766</v>
       </c>
       <c r="C3">
-        <v>0.1522915652222707</v>
+        <v>0.1617731188296858</v>
       </c>
       <c r="D3">
-        <v>0.06605262651770261</v>
+        <v>0.06817880226127926</v>
       </c>
       <c r="E3">
-        <v>0.3183031286268871</v>
+        <v>0.3188774641650269</v>
       </c>
       <c r="F3">
-        <v>0.5068605434077469</v>
+        <v>0.4691094073947752</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0002862527182634356</v>
+        <v>0.0001832033572688463</v>
       </c>
       <c r="I3">
-        <v>0.001582785568005285</v>
+        <v>0.001031874652256626</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.3467335575919357</v>
+        <v>0.3087353873167942</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1624793707213676</v>
       </c>
       <c r="M3">
-        <v>0.7760998634085752</v>
+        <v>0.07829667666376494</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5040367814534434</v>
+        <v>0.7949367591404126</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.585935751858614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5087346394303509</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.452542235013752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6121988678788739</v>
+        <v>0.6088663068298104</v>
       </c>
       <c r="C4">
-        <v>0.1412956998906481</v>
+        <v>0.1475163158137178</v>
       </c>
       <c r="D4">
-        <v>0.06181455710280659</v>
+        <v>0.06331423173547535</v>
       </c>
       <c r="E4">
-        <v>0.2911585436648068</v>
+        <v>0.2921839895201472</v>
       </c>
       <c r="F4">
-        <v>0.4913687193359806</v>
+        <v>0.4569700799189249</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0006359468149970127</v>
+        <v>0.000466559245157816</v>
       </c>
       <c r="I4">
-        <v>0.002172119476859802</v>
+        <v>0.001404637864353298</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.346354481665319</v>
+        <v>0.310364274822156</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1655014451253578</v>
       </c>
       <c r="M4">
-        <v>0.7094349687546213</v>
+        <v>0.07781374742955194</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4580229717486191</v>
+        <v>0.7258113816875635</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.560478337793427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4621175408088263</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.437326321730112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5874335516873828</v>
+        <v>0.5851090294184473</v>
       </c>
       <c r="C5">
-        <v>0.1372125957478971</v>
+        <v>0.1421519120857937</v>
       </c>
       <c r="D5">
-        <v>0.06015748682077771</v>
+        <v>0.06140702317910041</v>
       </c>
       <c r="E5">
-        <v>0.2800369164478127</v>
+        <v>0.2812445620054191</v>
       </c>
       <c r="F5">
-        <v>0.4845695604430205</v>
+        <v>0.451555787554156</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0008228312236264745</v>
+        <v>0.0006234763396659737</v>
       </c>
       <c r="I5">
-        <v>0.002531638757988119</v>
+        <v>0.001680087544034592</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.3457846258328949</v>
+        <v>0.3106507005226717</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1665476124196168</v>
       </c>
       <c r="M5">
-        <v>0.6825720491590914</v>
+        <v>0.07764564096125071</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4393511598330306</v>
+        <v>0.6979479779268019</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.548471380507252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4431981265607448</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.429583580666957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5829457782188001</v>
+        <v>0.580803054353737</v>
       </c>
       <c r="C6">
-        <v>0.1369875111084582</v>
+        <v>0.1417397730930503</v>
       </c>
       <c r="D6">
-        <v>0.05996854584333988</v>
+        <v>0.06117773645580371</v>
       </c>
       <c r="E6">
-        <v>0.2781271384045425</v>
+        <v>0.279366896371414</v>
       </c>
       <c r="F6">
-        <v>0.4827358348913293</v>
+        <v>0.4500038795461592</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.000857208559962519</v>
+        <v>0.0006525911228008052</v>
       </c>
       <c r="I6">
-        <v>0.002691329039599566</v>
+        <v>0.001840986969010139</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.3451347847335029</v>
+        <v>0.3102084478664935</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1664740541646914</v>
       </c>
       <c r="M6">
-        <v>0.6784920650992206</v>
+        <v>0.07750326468318569</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.436341040577453</v>
+        <v>0.6936923402407302</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.544167865741258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4401438801803224</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.426184946509721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6108467693984494</v>
+        <v>0.6075711993078414</v>
       </c>
       <c r="C7">
-        <v>0.142475038524438</v>
+        <v>0.1487491092358511</v>
       </c>
       <c r="D7">
-        <v>0.06202871729369974</v>
+        <v>0.0635280161250833</v>
       </c>
       <c r="E7">
-        <v>0.2908379480159411</v>
+        <v>0.2918716225753002</v>
       </c>
       <c r="F7">
-        <v>0.4893368894576753</v>
+        <v>0.4551064178088495</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0006400339720413761</v>
+        <v>0.0004699515635244733</v>
       </c>
       <c r="I7">
-        <v>0.002426537211717594</v>
+        <v>0.001698213099520451</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.3448250784391966</v>
+        <v>0.3090337808361596</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1648586176237146</v>
       </c>
       <c r="M7">
-        <v>0.7101173127448135</v>
+        <v>0.07746132583104348</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4580177393236582</v>
+        <v>0.7264529499103389</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.553967868552448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4621005885172025</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.431438629690646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7343870560199264</v>
+        <v>0.7259074208328116</v>
       </c>
       <c r="C8">
-        <v>0.1657883637098507</v>
+        <v>0.1789620552074922</v>
       </c>
       <c r="D8">
-        <v>0.07089291726805413</v>
+        <v>0.0737087869016122</v>
       </c>
       <c r="E8">
-        <v>0.3470207238275336</v>
+        <v>0.3471100363164581</v>
       </c>
       <c r="F8">
-        <v>0.5211695141969983</v>
+        <v>0.4799674586522116</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6.986001624742499E-05</v>
+        <v>2.721810222006127E-05</v>
       </c>
       <c r="I8">
-        <v>0.001414845964780476</v>
+        <v>0.001119941919010436</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.3452843572876354</v>
+        <v>0.3053601526711809</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1585408618477437</v>
       </c>
       <c r="M8">
-        <v>0.8486255317158395</v>
+        <v>0.07872738039388949</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5534985957739451</v>
+        <v>0.8700882554426812</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.605700675066885</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5588307638596106</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.461934419607189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9766870182617424</v>
+        <v>0.9572731631905356</v>
       </c>
       <c r="C9">
-        <v>0.2104854144769632</v>
+        <v>0.2379691032829072</v>
       </c>
       <c r="D9">
-        <v>0.08787586530544189</v>
+        <v>0.09340755086846286</v>
       </c>
       <c r="E9">
-        <v>0.4574808134804229</v>
+        <v>0.4555833087501355</v>
       </c>
       <c r="F9">
-        <v>0.5905023063345851</v>
+        <v>0.5345130563665137</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.000512620335660241</v>
+        <v>0.0006194464839366365</v>
       </c>
       <c r="I9">
-        <v>0.0006715575038116484</v>
+        <v>0.0008998733980973839</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.350336856986857</v>
+        <v>0.3014077025887367</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1477805875931359</v>
       </c>
       <c r="M9">
-        <v>1.118586083036263</v>
+        <v>0.08605975387366627</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7408518336265288</v>
+        <v>1.150430467502133</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.728146770295353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7486467594147186</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.539199179869513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.159518301895332</v>
+        <v>1.132067529521436</v>
       </c>
       <c r="C10">
-        <v>0.2449764009579241</v>
+        <v>0.2830032156548725</v>
       </c>
       <c r="D10">
-        <v>0.1018477133645632</v>
+        <v>0.1094278753886115</v>
       </c>
       <c r="E10">
-        <v>0.5049973968399186</v>
+        <v>0.5017694508417705</v>
       </c>
       <c r="F10">
-        <v>0.6332149577095549</v>
+        <v>0.5673968917134005</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.00196116961248638</v>
+        <v>0.002101304112060109</v>
       </c>
       <c r="I10">
-        <v>0.001365822154046903</v>
+        <v>0.001815137136774503</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.3485974738310205</v>
+        <v>0.2942396708216783</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1385302316710053</v>
       </c>
       <c r="M10">
-        <v>1.32356862687908</v>
+        <v>0.09201392933953656</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8495227512336356</v>
+        <v>1.36272092927004</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.790472190815592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8588021521662554</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.572462607288998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.297089208364724</v>
+        <v>1.26974881021178</v>
       </c>
       <c r="C11">
-        <v>0.2637196578747876</v>
+        <v>0.3009580474054729</v>
       </c>
       <c r="D11">
-        <v>0.1209325863062816</v>
+        <v>0.129013983231232</v>
       </c>
       <c r="E11">
-        <v>0.2776262830201901</v>
+        <v>0.2755887026292712</v>
       </c>
       <c r="F11">
-        <v>0.5676967425958779</v>
+        <v>0.5100956955006311</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02005795945365918</v>
+        <v>0.0201669217365783</v>
       </c>
       <c r="I11">
-        <v>0.00216129118881625</v>
+        <v>0.002742958746495106</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.2991406415454385</v>
+        <v>0.2542165318085239</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1220809774996248</v>
       </c>
       <c r="M11">
-        <v>1.468721069697125</v>
+        <v>0.07968784378260096</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6578190889599043</v>
+        <v>1.507140061896564</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.549099743067273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6653010398946861</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.363391152697147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.37935282366783</v>
+        <v>1.353996985239945</v>
       </c>
       <c r="C12">
-        <v>0.2703907546192283</v>
+        <v>0.3043098449298611</v>
       </c>
       <c r="D12">
-        <v>0.1347843619937521</v>
+        <v>0.1426885763257815</v>
       </c>
       <c r="E12">
-        <v>0.135754472349749</v>
+        <v>0.134810403975635</v>
       </c>
       <c r="F12">
-        <v>0.5087302797949107</v>
+        <v>0.4593752377318623</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0583307907606212</v>
+        <v>0.05842089922650473</v>
       </c>
       <c r="I12">
-        <v>0.002230011738624249</v>
+        <v>0.002817061204402727</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.2634606432558506</v>
+        <v>0.2265136292161749</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1121396274418096</v>
       </c>
       <c r="M12">
-        <v>1.548849650776106</v>
+        <v>0.06933520129541648</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4955203831415531</v>
+        <v>1.584824171058983</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.354728826609261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5013619370007305</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.198980608790038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.42133985348093</v>
+        <v>1.399635910437468</v>
       </c>
       <c r="C13">
-        <v>0.2700590282937583</v>
+        <v>0.298723690641296</v>
       </c>
       <c r="D13">
-        <v>0.1456186652004305</v>
+        <v>0.1528068164333263</v>
       </c>
       <c r="E13">
-        <v>0.0507346946142313</v>
+        <v>0.05079858094123502</v>
       </c>
       <c r="F13">
-        <v>0.4482534137196339</v>
+        <v>0.4078051425407594</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1136968269900507</v>
+        <v>0.1137715180598207</v>
       </c>
       <c r="I13">
-        <v>0.002066309823009149</v>
+        <v>0.002639083528635844</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.2337559200650539</v>
+        <v>0.2043598356631939</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.105187173700557</v>
       </c>
       <c r="M13">
-        <v>1.584408473852449</v>
+        <v>0.05943186702211811</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.347679673513376</v>
+        <v>1.616443770567173</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.174825224223142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3519132257064257</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.049539421239018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.432099880376171</v>
+        <v>1.413733702502327</v>
       </c>
       <c r="C14">
-        <v>0.2670863512422841</v>
+        <v>0.2912422554886689</v>
       </c>
       <c r="D14">
-        <v>0.1519662745475046</v>
+        <v>0.1583877147842827</v>
       </c>
       <c r="E14">
-        <v>0.02487532475763654</v>
+        <v>0.02554154023038135</v>
       </c>
       <c r="F14">
-        <v>0.4053901924349077</v>
+        <v>0.371337099009331</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1628090809402636</v>
+        <v>0.1628730282118056</v>
       </c>
       <c r="I14">
-        <v>0.001939946570827189</v>
+        <v>0.002506029688393419</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.2158804681876898</v>
+        <v>0.1914176962736853</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1014710505931777</v>
       </c>
       <c r="M14">
-        <v>1.589435049563093</v>
+        <v>0.05295516850013193</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.254729990663904</v>
+        <v>1.618006413424155</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.056477633088889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2578925733626534</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9521542577138149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.425131349364307</v>
+        <v>1.407914796759997</v>
       </c>
       <c r="C15">
-        <v>0.2653866651825325</v>
+        <v>0.2880917305301409</v>
       </c>
       <c r="D15">
-        <v>0.1528310748320365</v>
+        <v>0.1589688777972924</v>
       </c>
       <c r="E15">
-        <v>0.02296102705525582</v>
+        <v>0.02376799451408085</v>
       </c>
       <c r="F15">
-        <v>0.3938103505222941</v>
+        <v>0.3615361503183578</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1752364328227429</v>
+        <v>0.1752962524438431</v>
       </c>
       <c r="I15">
-        <v>0.001976016493300925</v>
+        <v>0.002556157373780898</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.2120357026324449</v>
+        <v>0.1888078033466272</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.100850729684189</v>
       </c>
       <c r="M15">
-        <v>1.581178081373992</v>
+        <v>0.05134983086241185</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2325258594126538</v>
+        <v>1.608619120548326</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.027564719167543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.235414879304134</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.9288167443972384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.335277403870379</v>
+        <v>1.320846929232886</v>
       </c>
       <c r="C16">
-        <v>0.2512322779570013</v>
+        <v>0.2705931400743395</v>
       </c>
       <c r="D16">
-        <v>0.1443213393039571</v>
+        <v>0.1496760922601936</v>
       </c>
       <c r="E16">
-        <v>0.02273734142934533</v>
+        <v>0.02366424394414762</v>
       </c>
       <c r="F16">
-        <v>0.3869975591907178</v>
+        <v>0.356762748292283</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1621541883114332</v>
+        <v>0.1621927577576088</v>
       </c>
       <c r="I16">
-        <v>0.001758409372595082</v>
+        <v>0.002295492517316866</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.2178426111611778</v>
+        <v>0.1950009165994686</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1040412685148926</v>
       </c>
       <c r="M16">
-        <v>1.484500272059449</v>
+        <v>0.05148821160919681</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2209889791271706</v>
+        <v>1.509606060453478</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.03435291379455</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2236407382588119</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.9403264085467811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.260855674694596</v>
+        <v>1.246751289920553</v>
       </c>
       <c r="C17">
-        <v>0.2420419029742504</v>
+        <v>0.2612471457120193</v>
       </c>
       <c r="D17">
-        <v>0.1344353637986302</v>
+        <v>0.139623305072675</v>
       </c>
       <c r="E17">
-        <v>0.0305759593289574</v>
+        <v>0.03134475201971298</v>
       </c>
       <c r="F17">
-        <v>0.4042612090313185</v>
+        <v>0.3723432807259925</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1242148813750532</v>
+        <v>0.1242420296463962</v>
       </c>
       <c r="I17">
-        <v>0.001708039393117033</v>
+        <v>0.002212800476597998</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.2315085700722452</v>
+        <v>0.2065346794091738</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1087911000412323</v>
       </c>
       <c r="M17">
-        <v>1.407994933957525</v>
+        <v>0.05473921873630339</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2586238230454363</v>
+        <v>1.433174986538972</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.10118403322079</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2616269547545578</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.000297550683115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.193235497218211</v>
+        <v>1.17746915457829</v>
       </c>
       <c r="C18">
-        <v>0.2349809038960018</v>
+        <v>0.2566057077161616</v>
       </c>
       <c r="D18">
-        <v>0.1224161027210755</v>
+        <v>0.1278755234832545</v>
       </c>
       <c r="E18">
-        <v>0.07514349905003925</v>
+        <v>0.0754103711982772</v>
       </c>
       <c r="F18">
-        <v>0.446830421718758</v>
+        <v>0.4094741958454762</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07138515216932717</v>
+        <v>0.0714191079862303</v>
       </c>
       <c r="I18">
-        <v>0.001461621444314609</v>
+        <v>0.001903178760882973</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.2560471861867413</v>
+        <v>0.226018640363959</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1163335289930387</v>
       </c>
       <c r="M18">
-        <v>1.33997543649059</v>
+        <v>0.06153875672890585</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3543301465610682</v>
+        <v>1.367205605412892</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.237918637312447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3583326106742462</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.117822886479345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.135175500172181</v>
+        <v>1.116515642996717</v>
       </c>
       <c r="C19">
-        <v>0.2328261580863966</v>
+        <v>0.2588089508207645</v>
       </c>
       <c r="D19">
-        <v>0.1107419153227198</v>
+        <v>0.1166962246738308</v>
       </c>
       <c r="E19">
-        <v>0.1895942243066955</v>
+        <v>0.1889491271200967</v>
       </c>
       <c r="F19">
-        <v>0.5060973333790102</v>
+        <v>0.4604078447270226</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.0263647350220495</v>
+        <v>0.02642839636369843</v>
       </c>
       <c r="I19">
-        <v>0.001591781451733887</v>
+        <v>0.002065101823851556</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>0.2883532900292352</v>
+        <v>0.2508929123204702</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.125689163536336</v>
       </c>
       <c r="M19">
-        <v>1.287079292754754</v>
+        <v>0.07084360262108191</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5084889427080341</v>
+        <v>1.317558760297942</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.423226941863618</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5140908582265453</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.273994882110301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.108525524128453</v>
+        <v>1.083400470020308</v>
       </c>
       <c r="C20">
-        <v>0.2398618014612452</v>
+        <v>0.2754075939025569</v>
       </c>
       <c r="D20">
-        <v>0.09900459511545279</v>
+        <v>0.1060600017874762</v>
       </c>
       <c r="E20">
-        <v>0.4905551710509286</v>
+        <v>0.4877106737369772</v>
       </c>
       <c r="F20">
-        <v>0.6154384582995149</v>
+        <v>0.5528591180260491</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.001479662055283271</v>
+        <v>0.0016155294917235</v>
       </c>
       <c r="I20">
-        <v>0.001858687219680633</v>
+        <v>0.002417122097214452</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.3441602939050661</v>
+        <v>0.292045567230776</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1394435306841864</v>
       </c>
       <c r="M20">
-        <v>1.273284104303201</v>
+        <v>0.08872416310383358</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8204999924089478</v>
+        <v>1.310420985097522</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.752937075601267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8293544256096581</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.545036113194271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.239655461290795</v>
+        <v>1.207534273485294</v>
       </c>
       <c r="C21">
-        <v>0.2657742870710109</v>
+        <v>0.3105986199083191</v>
       </c>
       <c r="D21">
-        <v>0.1075587463149432</v>
+        <v>0.1162783110338097</v>
       </c>
       <c r="E21">
-        <v>0.5794914979037173</v>
+        <v>0.5752563847863001</v>
       </c>
       <c r="F21">
-        <v>0.6655173956685303</v>
+        <v>0.5928357635902586</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.002972881042925479</v>
+        <v>0.00311724064212493</v>
       </c>
       <c r="I21">
-        <v>0.002650131973087611</v>
+        <v>0.003286110234780537</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>0.3530325610849552</v>
+        <v>0.2943712101681655</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1353026390555385</v>
       </c>
       <c r="M21">
-        <v>1.421658969416313</v>
+        <v>0.09702496277405359</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9500768695923014</v>
+        <v>1.465131261687304</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.856134815540429</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.960520056497181</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.616815714489405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.32979074103784</v>
+        <v>1.293136378122739</v>
       </c>
       <c r="C22">
-        <v>0.2813127495379604</v>
+        <v>0.3318289175610971</v>
       </c>
       <c r="D22">
-        <v>0.1135176067906229</v>
+        <v>0.123309763921938</v>
       </c>
       <c r="E22">
-        <v>0.6207648916644075</v>
+        <v>0.6156951158093875</v>
       </c>
       <c r="F22">
-        <v>0.6963608662397078</v>
+        <v>0.6174616927495578</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.004204657094751596</v>
+        <v>0.00433494581744065</v>
       </c>
       <c r="I22">
-        <v>0.003116622133449098</v>
+        <v>0.003693911246210213</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>0.3580634147763959</v>
+        <v>0.2954264084445342</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1323876469039078</v>
       </c>
       <c r="M22">
-        <v>1.520286879353677</v>
+        <v>0.1027508521852916</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.019527209834578</v>
+        <v>1.567713255293427</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.917271811590211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.03085702524367</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.658821767388361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.282936600383181</v>
+        <v>1.248645507999044</v>
       </c>
       <c r="C23">
-        <v>0.2714694103162287</v>
+        <v>0.3187877979330835</v>
       </c>
       <c r="D23">
-        <v>0.1100396727370168</v>
+        <v>0.1192483187415974</v>
       </c>
       <c r="E23">
-        <v>0.5989293677548204</v>
+        <v>0.5942978372800312</v>
       </c>
       <c r="F23">
-        <v>0.6821061190520723</v>
+        <v>0.6063115202386626</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.003526793404601603</v>
+        <v>0.003666029999548681</v>
       </c>
       <c r="I23">
-        <v>0.002556794106544302</v>
+        <v>0.003108429871694796</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>0.3570914081283405</v>
+        <v>0.2962848591498215</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1344158499764383</v>
       </c>
       <c r="M23">
-        <v>1.466340517025117</v>
+        <v>0.1002554382856395</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9821395755079507</v>
+        <v>1.511681490707076</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.891818902429918</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9930073478309041</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.642744296934893</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.103375510845638</v>
+        <v>1.077937607154354</v>
       </c>
       <c r="C24">
-        <v>0.2370557815890777</v>
+        <v>0.2727669597430662</v>
       </c>
       <c r="D24">
-        <v>0.09737125455291817</v>
+        <v>0.1044207928288401</v>
       </c>
       <c r="E24">
-        <v>0.5161550384612283</v>
+        <v>0.5131523499993804</v>
       </c>
       <c r="F24">
-        <v>0.6258199548812655</v>
+        <v>0.56191187090635</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.001461811865108853</v>
+        <v>0.001601977894152062</v>
       </c>
       <c r="I24">
-        <v>0.001386206031961379</v>
+        <v>0.001848022395666504</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.3511959110301142</v>
+        <v>0.2976595897813716</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1415572428446232</v>
       </c>
       <c r="M24">
-        <v>1.264542324683418</v>
+        <v>0.09082231514505423</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8414910044909547</v>
+        <v>1.301966939452541</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.787384990412079</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8505693097593081</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.574536384834914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9094302452679131</v>
+        <v>0.8931396293843648</v>
       </c>
       <c r="C25">
-        <v>0.2005338264929151</v>
+        <v>0.224227663934272</v>
       </c>
       <c r="D25">
-        <v>0.08371673515552658</v>
+        <v>0.08850906943415282</v>
       </c>
       <c r="E25">
-        <v>0.4272654543686656</v>
+        <v>0.4259329569543056</v>
       </c>
       <c r="F25">
-        <v>0.5678485874419508</v>
+        <v>0.5162652531904044</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0002084682134557703</v>
+        <v>0.0002864716305406301</v>
       </c>
       <c r="I25">
-        <v>0.001104345769484816</v>
+        <v>0.001301455675513097</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.3461007733936512</v>
+        <v>0.3000741106632532</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1497055567399066</v>
       </c>
       <c r="M25">
-        <v>1.047417943037345</v>
+        <v>0.08281828713025341</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6905241950208207</v>
+        <v>1.076384514899615</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.682530581194044</v>
+        <v>0.6976401383736857</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.507276947919308</v>
       </c>
     </row>
   </sheetData>
